--- a/SalesSummary_Mtl.xlsx
+++ b/SalesSummary_Mtl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15146\Desktop\Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DCFF7F2-59FF-4D07-B9A0-205F8277072A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8664BE5D-178E-4651-8C93-4D0234C95FF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2115" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>Sales Summary Report by Montreal, Engineered Slab Summarized By Item, Monthly</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>Cascade White 3cm</t>
+  </si>
+  <si>
+    <t>Cashmere Original 2cm</t>
   </si>
   <si>
     <t>Cashmere Original 3cm</t>
@@ -1390,7 +1393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BV144"/>
+  <dimension ref="A1:BV145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:BV1"/>
@@ -3469,7 +3472,7 @@
         <v>5</v>
       </c>
       <c r="Y11" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Z11" s="1">
         <v>0</v>
@@ -3613,7 +3616,7 @@
         <v>7046</v>
       </c>
       <c r="BU11" s="3">
-        <v>2896</v>
+        <v>8784</v>
       </c>
       <c r="BV11" s="4"/>
     </row>
@@ -6355,7 +6358,7 @@
         <v>2</v>
       </c>
       <c r="Y24" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z24" s="1">
         <v>0</v>
@@ -6499,7 +6502,7 @@
         <v>1200</v>
       </c>
       <c r="BU24" s="3">
-        <v>1160</v>
+        <v>2940</v>
       </c>
       <c r="BV24" s="4"/>
     </row>
@@ -7909,7 +7912,7 @@
         <v>2</v>
       </c>
       <c r="Y31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z31" s="1">
         <v>0</v>
@@ -8052,8 +8055,8 @@
       <c r="BT31" s="3">
         <v>2400</v>
       </c>
-      <c r="BU31" s="1">
-        <v>0</v>
+      <c r="BU31" s="3">
+        <v>2400</v>
       </c>
       <c r="BV31" s="4"/>
     </row>
@@ -8575,7 +8578,7 @@
         <v>4</v>
       </c>
       <c r="Y34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34" s="1">
         <v>0</v>
@@ -8719,7 +8722,7 @@
         <v>3692</v>
       </c>
       <c r="BU34" s="1">
-        <v>0</v>
+        <v>984</v>
       </c>
       <c r="BV34" s="4"/>
     </row>
@@ -8797,7 +8800,7 @@
         <v>6</v>
       </c>
       <c r="Y35" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z35" s="1">
         <v>0</v>
@@ -8941,7 +8944,7 @@
         <v>6825</v>
       </c>
       <c r="BU35" s="3">
-        <v>5625</v>
+        <v>7950</v>
       </c>
       <c r="BV35" s="4"/>
     </row>
@@ -11239,7 +11242,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z46" s="1">
         <v>0</v>
@@ -11383,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="BU46" s="3">
-        <v>1968</v>
+        <v>4737</v>
       </c>
       <c r="BV46" s="4"/>
     </row>
@@ -13237,7 +13240,7 @@
         <v>17</v>
       </c>
       <c r="Y55" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Z55" s="1">
         <v>0</v>
@@ -13381,7 +13384,7 @@
         <v>14232</v>
       </c>
       <c r="BU55" s="3">
-        <v>13036</v>
+        <v>18112</v>
       </c>
       <c r="BV55" s="4"/>
     </row>
@@ -15190,7 +15193,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="1">
         <v>0</v>
@@ -15199,44 +15202,44 @@
         <v>0</v>
       </c>
       <c r="M64" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N64" s="1">
         <v>0</v>
       </c>
       <c r="O64" s="1">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>0</v>
+      </c>
+      <c r="R64" s="1">
+        <v>0</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1">
+        <v>0</v>
+      </c>
+      <c r="U64" s="1">
+        <v>0</v>
+      </c>
+      <c r="V64" s="1">
+        <v>0</v>
+      </c>
+      <c r="W64" s="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="1">
         <v>2</v>
       </c>
-      <c r="P64" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>0</v>
-      </c>
-      <c r="R64" s="1">
-        <v>0</v>
-      </c>
-      <c r="S64" s="1">
-        <v>3</v>
-      </c>
-      <c r="T64" s="1">
-        <v>0</v>
-      </c>
-      <c r="U64" s="1">
-        <v>0</v>
-      </c>
-      <c r="V64" s="1">
-        <v>0</v>
-      </c>
-      <c r="W64" s="1">
-        <v>4</v>
-      </c>
-      <c r="X64" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="1">
-        <v>4</v>
-      </c>
       <c r="Z64" s="1">
         <v>0</v>
       </c>
@@ -15333,8 +15336,8 @@
       <c r="BE64" s="1">
         <v>0</v>
       </c>
-      <c r="BF64" s="3">
-        <v>1108</v>
+      <c r="BF64" s="1">
+        <v>0</v>
       </c>
       <c r="BG64" s="1">
         <v>0</v>
@@ -15342,17 +15345,17 @@
       <c r="BH64" s="1">
         <v>0</v>
       </c>
-      <c r="BI64" s="3">
-        <v>3117</v>
+      <c r="BI64" s="1">
+        <v>0</v>
       </c>
       <c r="BJ64" s="1">
         <v>0</v>
       </c>
-      <c r="BK64" s="3">
-        <v>1034</v>
-      </c>
-      <c r="BL64" s="3">
-        <v>2078</v>
+      <c r="BK64" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL64" s="1">
+        <v>0</v>
       </c>
       <c r="BM64" s="1">
         <v>0</v>
@@ -15360,8 +15363,8 @@
       <c r="BN64" s="1">
         <v>0</v>
       </c>
-      <c r="BO64" s="3">
-        <v>3117</v>
+      <c r="BO64" s="1">
+        <v>0</v>
       </c>
       <c r="BP64" s="1">
         <v>0</v>
@@ -15372,14 +15375,14 @@
       <c r="BR64" s="1">
         <v>0</v>
       </c>
-      <c r="BS64" s="3">
-        <v>4363</v>
+      <c r="BS64" s="1">
+        <v>0</v>
       </c>
       <c r="BT64" s="1">
         <v>0</v>
       </c>
       <c r="BU64" s="3">
-        <v>4432</v>
+        <v>1560</v>
       </c>
       <c r="BV64" s="4"/>
     </row>
@@ -15412,7 +15415,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
         <v>0</v>
@@ -15421,16 +15424,16 @@
         <v>0</v>
       </c>
       <c r="M65" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P65" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q65" s="1">
         <v>0</v>
@@ -15439,7 +15442,7 @@
         <v>0</v>
       </c>
       <c r="S65" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T65" s="1">
         <v>0</v>
@@ -15451,13 +15454,13 @@
         <v>0</v>
       </c>
       <c r="W65" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X65" s="1">
         <v>0</v>
       </c>
       <c r="Y65" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z65" s="1">
         <v>0</v>
@@ -15555,8 +15558,8 @@
       <c r="BE65" s="1">
         <v>0</v>
       </c>
-      <c r="BF65" s="1">
-        <v>0</v>
+      <c r="BF65" s="3">
+        <v>1108</v>
       </c>
       <c r="BG65" s="1">
         <v>0</v>
@@ -15564,17 +15567,17 @@
       <c r="BH65" s="1">
         <v>0</v>
       </c>
-      <c r="BI65" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ65" s="3">
-        <v>1448</v>
-      </c>
-      <c r="BK65" s="1">
-        <v>0</v>
+      <c r="BI65" s="3">
+        <v>3117</v>
+      </c>
+      <c r="BJ65" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK65" s="3">
+        <v>1034</v>
       </c>
       <c r="BL65" s="3">
-        <v>1544</v>
+        <v>2078</v>
       </c>
       <c r="BM65" s="1">
         <v>0</v>
@@ -15582,8 +15585,8 @@
       <c r="BN65" s="1">
         <v>0</v>
       </c>
-      <c r="BO65" s="1">
-        <v>0</v>
+      <c r="BO65" s="3">
+        <v>3117</v>
       </c>
       <c r="BP65" s="1">
         <v>0</v>
@@ -15594,14 +15597,14 @@
       <c r="BR65" s="1">
         <v>0</v>
       </c>
-      <c r="BS65" s="1">
-        <v>0</v>
+      <c r="BS65" s="3">
+        <v>4363</v>
       </c>
       <c r="BT65" s="1">
         <v>0</v>
       </c>
-      <c r="BU65" s="1">
-        <v>0</v>
+      <c r="BU65" s="3">
+        <v>4432</v>
       </c>
       <c r="BV65" s="4"/>
     </row>
@@ -15646,13 +15649,13 @@
         <v>0</v>
       </c>
       <c r="N66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" s="1">
         <v>0</v>
       </c>
       <c r="P66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66" s="1">
         <v>0</v>
@@ -15670,7 +15673,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W66" s="1">
         <v>0</v>
@@ -15789,14 +15792,14 @@
       <c r="BI66" s="1">
         <v>0</v>
       </c>
-      <c r="BJ66" s="1">
-        <v>0</v>
+      <c r="BJ66" s="3">
+        <v>1448</v>
       </c>
       <c r="BK66" s="1">
         <v>0</v>
       </c>
-      <c r="BL66" s="1">
-        <v>0</v>
+      <c r="BL66" s="3">
+        <v>1544</v>
       </c>
       <c r="BM66" s="1">
         <v>0</v>
@@ -15813,8 +15816,8 @@
       <c r="BQ66" s="1">
         <v>0</v>
       </c>
-      <c r="BR66" s="3">
-        <v>3760</v>
+      <c r="BR66" s="1">
+        <v>0</v>
       </c>
       <c r="BS66" s="1">
         <v>0</v>
@@ -15880,19 +15883,19 @@
         <v>0</v>
       </c>
       <c r="R67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" s="1">
         <v>0</v>
       </c>
       <c r="T67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U67" s="1">
         <v>0</v>
       </c>
       <c r="V67" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W67" s="1">
         <v>0</v>
@@ -16024,19 +16027,19 @@
         <v>0</v>
       </c>
       <c r="BN67" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="1">
         <v>0</v>
       </c>
       <c r="BP67" s="1">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="BQ67" s="1">
         <v>0</v>
       </c>
-      <c r="BR67" s="1">
-        <v>0</v>
+      <c r="BR67" s="3">
+        <v>3760</v>
       </c>
       <c r="BS67" s="1">
         <v>0</v>
@@ -16102,13 +16105,13 @@
         <v>0</v>
       </c>
       <c r="R68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S68" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68" s="1">
         <v>0</v>
@@ -16117,7 +16120,7 @@
         <v>0</v>
       </c>
       <c r="W68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X68" s="1">
         <v>0</v>
@@ -16246,13 +16249,13 @@
         <v>0</v>
       </c>
       <c r="BN68" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO68" s="3">
-        <v>2664</v>
+        <v>585</v>
+      </c>
+      <c r="BO68" s="1">
+        <v>0</v>
       </c>
       <c r="BP68" s="1">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="BQ68" s="1">
         <v>0</v>
@@ -16260,8 +16263,8 @@
       <c r="BR68" s="1">
         <v>0</v>
       </c>
-      <c r="BS68" s="3">
-        <v>1332</v>
+      <c r="BS68" s="1">
+        <v>0</v>
       </c>
       <c r="BT68" s="1">
         <v>0</v>
@@ -16303,7 +16306,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L69" s="1">
         <v>0</v>
@@ -16315,19 +16318,19 @@
         <v>0</v>
       </c>
       <c r="O69" s="1">
+        <v>0</v>
+      </c>
+      <c r="P69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>0</v>
+      </c>
+      <c r="R69" s="1">
+        <v>0</v>
+      </c>
+      <c r="S69" s="1">
         <v>2</v>
-      </c>
-      <c r="P69" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="1">
-        <v>0</v>
-      </c>
-      <c r="R69" s="1">
-        <v>0</v>
-      </c>
-      <c r="S69" s="1">
-        <v>1</v>
       </c>
       <c r="T69" s="1">
         <v>0</v>
@@ -16345,7 +16348,7 @@
         <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z69" s="1">
         <v>0</v>
@@ -16446,8 +16449,8 @@
       <c r="BF69" s="1">
         <v>0</v>
       </c>
-      <c r="BG69" s="3">
-        <v>4923</v>
+      <c r="BG69" s="1">
+        <v>0</v>
       </c>
       <c r="BH69" s="1">
         <v>0</v>
@@ -16458,8 +16461,8 @@
       <c r="BJ69" s="1">
         <v>0</v>
       </c>
-      <c r="BK69" s="3">
-        <v>2896</v>
+      <c r="BK69" s="1">
+        <v>0</v>
       </c>
       <c r="BL69" s="1">
         <v>0</v>
@@ -16470,8 +16473,8 @@
       <c r="BN69" s="1">
         <v>0</v>
       </c>
-      <c r="BO69" s="1">
-        <v>0</v>
+      <c r="BO69" s="3">
+        <v>2664</v>
       </c>
       <c r="BP69" s="1">
         <v>0</v>
@@ -16483,13 +16486,13 @@
         <v>0</v>
       </c>
       <c r="BS69" s="3">
-        <v>1448</v>
+        <v>1332</v>
       </c>
       <c r="BT69" s="1">
         <v>0</v>
       </c>
-      <c r="BU69" s="3">
-        <v>1544</v>
+      <c r="BU69" s="1">
+        <v>0</v>
       </c>
       <c r="BV69" s="4"/>
     </row>
@@ -16525,7 +16528,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L70" s="1">
         <v>0</v>
@@ -16534,23 +16537,23 @@
         <v>0</v>
       </c>
       <c r="N70" s="1">
+        <v>0</v>
+      </c>
+      <c r="O70" s="1">
+        <v>2</v>
+      </c>
+      <c r="P70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>0</v>
+      </c>
+      <c r="R70" s="1">
+        <v>0</v>
+      </c>
+      <c r="S70" s="1">
         <v>1</v>
       </c>
-      <c r="O70" s="1">
-        <v>0</v>
-      </c>
-      <c r="P70" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>0</v>
-      </c>
-      <c r="R70" s="1">
-        <v>0</v>
-      </c>
-      <c r="S70" s="1">
-        <v>0</v>
-      </c>
       <c r="T70" s="1">
         <v>0</v>
       </c>
@@ -16561,13 +16564,13 @@
         <v>0</v>
       </c>
       <c r="W70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X70" s="1">
         <v>0</v>
       </c>
       <c r="Y70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z70" s="1">
         <v>0</v>
@@ -16668,8 +16671,8 @@
       <c r="BF70" s="1">
         <v>0</v>
       </c>
-      <c r="BG70" s="1">
-        <v>0</v>
+      <c r="BG70" s="3">
+        <v>4923</v>
       </c>
       <c r="BH70" s="1">
         <v>0</v>
@@ -16678,10 +16681,10 @@
         <v>0</v>
       </c>
       <c r="BJ70" s="1">
-        <v>998</v>
-      </c>
-      <c r="BK70" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BK70" s="3">
+        <v>2896</v>
       </c>
       <c r="BL70" s="1">
         <v>0</v>
@@ -16704,14 +16707,14 @@
       <c r="BR70" s="1">
         <v>0</v>
       </c>
-      <c r="BS70" s="1">
-        <v>0</v>
+      <c r="BS70" s="3">
+        <v>1448</v>
       </c>
       <c r="BT70" s="1">
         <v>0</v>
       </c>
-      <c r="BU70" s="1">
-        <v>0</v>
+      <c r="BU70" s="3">
+        <v>1544</v>
       </c>
       <c r="BV70" s="4"/>
     </row>
@@ -16744,52 +16747,52 @@
         <v>0</v>
       </c>
       <c r="J71" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M71" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N71" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O71" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P71" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q71" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S71" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T71" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V71" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W71" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X71" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z71" s="1">
         <v>0</v>
@@ -16887,53 +16890,53 @@
       <c r="BE71" s="1">
         <v>0</v>
       </c>
-      <c r="BF71" s="3">
-        <v>7176</v>
-      </c>
-      <c r="BG71" s="3">
-        <v>2392</v>
-      </c>
-      <c r="BH71" s="3">
-        <v>2392</v>
-      </c>
-      <c r="BI71" s="3">
-        <v>3588</v>
-      </c>
-      <c r="BJ71" s="3">
-        <v>2392</v>
-      </c>
-      <c r="BK71" s="3">
-        <v>4784</v>
-      </c>
-      <c r="BL71" s="3">
-        <v>6220</v>
-      </c>
-      <c r="BM71" s="3">
-        <v>4864</v>
-      </c>
-      <c r="BN71" s="3">
-        <v>1276</v>
-      </c>
-      <c r="BO71" s="3">
-        <v>2552</v>
-      </c>
-      <c r="BP71" s="3">
-        <v>6060</v>
-      </c>
-      <c r="BQ71" s="3">
-        <v>1196</v>
-      </c>
-      <c r="BR71" s="3">
-        <v>6380</v>
-      </c>
-      <c r="BS71" s="3">
-        <v>4784</v>
-      </c>
-      <c r="BT71" s="3">
-        <v>7256</v>
-      </c>
-      <c r="BU71" s="3">
-        <v>7496</v>
+      <c r="BF71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ71" s="1">
+        <v>998</v>
+      </c>
+      <c r="BK71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT71" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU71" s="1">
+        <v>0</v>
       </c>
       <c r="BV71" s="4"/>
     </row>
@@ -16966,52 +16969,52 @@
         <v>0</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L72" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M72" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N72" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O72" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P72" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q72" s="1">
+        <v>4</v>
+      </c>
+      <c r="R72" s="1">
         <v>1</v>
       </c>
-      <c r="R72" s="1">
-        <v>0</v>
-      </c>
       <c r="S72" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T72" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V72" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W72" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X72" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y72" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z72" s="1">
         <v>0</v>
@@ -17109,53 +17112,53 @@
       <c r="BE72" s="1">
         <v>0</v>
       </c>
-      <c r="BF72" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG72" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH72" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI72" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ72" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK72" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL72" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM72" s="1">
-        <v>984</v>
-      </c>
-      <c r="BN72" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO72" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP72" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ72" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR72" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS72" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT72" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU72" s="1">
-        <v>0</v>
+      <c r="BF72" s="3">
+        <v>7176</v>
+      </c>
+      <c r="BG72" s="3">
+        <v>2392</v>
+      </c>
+      <c r="BH72" s="3">
+        <v>2392</v>
+      </c>
+      <c r="BI72" s="3">
+        <v>3588</v>
+      </c>
+      <c r="BJ72" s="3">
+        <v>2392</v>
+      </c>
+      <c r="BK72" s="3">
+        <v>4784</v>
+      </c>
+      <c r="BL72" s="3">
+        <v>6220</v>
+      </c>
+      <c r="BM72" s="3">
+        <v>4864</v>
+      </c>
+      <c r="BN72" s="3">
+        <v>1276</v>
+      </c>
+      <c r="BO72" s="3">
+        <v>2552</v>
+      </c>
+      <c r="BP72" s="3">
+        <v>6060</v>
+      </c>
+      <c r="BQ72" s="3">
+        <v>1196</v>
+      </c>
+      <c r="BR72" s="3">
+        <v>6380</v>
+      </c>
+      <c r="BS72" s="3">
+        <v>4784</v>
+      </c>
+      <c r="BT72" s="3">
+        <v>7256</v>
+      </c>
+      <c r="BU72" s="3">
+        <v>7496</v>
       </c>
       <c r="BV72" s="4"/>
     </row>
@@ -17194,47 +17197,47 @@
         <v>0</v>
       </c>
       <c r="L73" s="1">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
+        <v>0</v>
+      </c>
+      <c r="P73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1">
         <v>1</v>
       </c>
-      <c r="M73" s="1">
-        <v>0</v>
-      </c>
-      <c r="N73" s="1">
+      <c r="R73" s="1">
+        <v>0</v>
+      </c>
+      <c r="S73" s="1">
+        <v>0</v>
+      </c>
+      <c r="T73" s="1">
+        <v>0</v>
+      </c>
+      <c r="U73" s="1">
+        <v>0</v>
+      </c>
+      <c r="V73" s="1">
+        <v>0</v>
+      </c>
+      <c r="W73" s="1">
+        <v>0</v>
+      </c>
+      <c r="X73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="1">
         <v>1</v>
       </c>
-      <c r="O73" s="1">
-        <v>0</v>
-      </c>
-      <c r="P73" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="1">
-        <v>2</v>
-      </c>
-      <c r="R73" s="1">
-        <v>3</v>
-      </c>
-      <c r="S73" s="1">
-        <v>0</v>
-      </c>
-      <c r="T73" s="1">
-        <v>0</v>
-      </c>
-      <c r="U73" s="1">
-        <v>0</v>
-      </c>
-      <c r="V73" s="1">
-        <v>0</v>
-      </c>
-      <c r="W73" s="1">
-        <v>1</v>
-      </c>
-      <c r="X73" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="1">
-        <v>0</v>
-      </c>
       <c r="Z73" s="1">
         <v>0</v>
       </c>
@@ -17337,14 +17340,14 @@
       <c r="BG73" s="1">
         <v>0</v>
       </c>
-      <c r="BH73" s="3">
-        <v>1125</v>
+      <c r="BH73" s="1">
+        <v>0</v>
       </c>
       <c r="BI73" s="1">
         <v>0</v>
       </c>
-      <c r="BJ73" s="3">
-        <v>1125</v>
+      <c r="BJ73" s="1">
+        <v>0</v>
       </c>
       <c r="BK73" s="1">
         <v>0</v>
@@ -17352,11 +17355,11 @@
       <c r="BL73" s="1">
         <v>0</v>
       </c>
-      <c r="BM73" s="3">
-        <v>2250</v>
-      </c>
-      <c r="BN73" s="3">
-        <v>3375</v>
+      <c r="BM73" s="1">
+        <v>984</v>
+      </c>
+      <c r="BN73" s="1">
+        <v>0</v>
       </c>
       <c r="BO73" s="1">
         <v>0</v>
@@ -17370,14 +17373,14 @@
       <c r="BR73" s="1">
         <v>0</v>
       </c>
-      <c r="BS73" s="3">
-        <v>1125</v>
+      <c r="BS73" s="1">
+        <v>0</v>
       </c>
       <c r="BT73" s="1">
         <v>0</v>
       </c>
       <c r="BU73" s="1">
-        <v>0</v>
+        <v>984</v>
       </c>
       <c r="BV73" s="4"/>
     </row>
@@ -17416,25 +17419,25 @@
         <v>0</v>
       </c>
       <c r="L74" s="1">
+        <v>1</v>
+      </c>
+      <c r="M74" s="1">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1">
+        <v>1</v>
+      </c>
+      <c r="O74" s="1">
+        <v>0</v>
+      </c>
+      <c r="P74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1">
         <v>2</v>
       </c>
-      <c r="M74" s="1">
-        <v>0</v>
-      </c>
-      <c r="N74" s="1">
-        <v>0</v>
-      </c>
-      <c r="O74" s="1">
-        <v>0</v>
-      </c>
-      <c r="P74" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="1">
-        <v>0</v>
-      </c>
       <c r="R74" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S74" s="1">
         <v>0</v>
@@ -17449,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="W74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X74" s="1">
         <v>0</v>
@@ -17560,13 +17563,13 @@
         <v>0</v>
       </c>
       <c r="BH74" s="3">
-        <v>3790</v>
+        <v>1125</v>
       </c>
       <c r="BI74" s="1">
         <v>0</v>
       </c>
-      <c r="BJ74" s="1">
-        <v>0</v>
+      <c r="BJ74" s="3">
+        <v>1125</v>
       </c>
       <c r="BK74" s="1">
         <v>0</v>
@@ -17574,11 +17577,11 @@
       <c r="BL74" s="1">
         <v>0</v>
       </c>
-      <c r="BM74" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN74" s="1">
-        <v>0</v>
+      <c r="BM74" s="3">
+        <v>2250</v>
+      </c>
+      <c r="BN74" s="3">
+        <v>3375</v>
       </c>
       <c r="BO74" s="1">
         <v>0</v>
@@ -17592,8 +17595,8 @@
       <c r="BR74" s="1">
         <v>0</v>
       </c>
-      <c r="BS74" s="1">
-        <v>0</v>
+      <c r="BS74" s="3">
+        <v>1125</v>
       </c>
       <c r="BT74" s="1">
         <v>0</v>
@@ -17635,7 +17638,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="1">
         <v>2</v>
@@ -17647,19 +17650,19 @@
         <v>0</v>
       </c>
       <c r="O75" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" s="1">
         <v>0</v>
       </c>
       <c r="S75" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T75" s="1">
         <v>0</v>
@@ -17668,7 +17671,7 @@
         <v>0</v>
       </c>
       <c r="V75" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W75" s="1">
         <v>0</v>
@@ -17778,11 +17781,11 @@
       <c r="BF75" s="1">
         <v>0</v>
       </c>
-      <c r="BG75" s="3">
-        <v>1249</v>
+      <c r="BG75" s="1">
+        <v>0</v>
       </c>
       <c r="BH75" s="3">
-        <v>2498</v>
+        <v>3790</v>
       </c>
       <c r="BI75" s="1">
         <v>0</v>
@@ -17790,20 +17793,20 @@
       <c r="BJ75" s="1">
         <v>0</v>
       </c>
-      <c r="BK75" s="3">
-        <v>2498</v>
-      </c>
-      <c r="BL75" s="3">
-        <v>1249</v>
-      </c>
-      <c r="BM75" s="3">
-        <v>1249</v>
+      <c r="BK75" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL75" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM75" s="1">
+        <v>0</v>
       </c>
       <c r="BN75" s="1">
         <v>0</v>
       </c>
-      <c r="BO75" s="3">
-        <v>2340</v>
+      <c r="BO75" s="1">
+        <v>0</v>
       </c>
       <c r="BP75" s="1">
         <v>0</v>
@@ -17811,8 +17814,8 @@
       <c r="BQ75" s="1">
         <v>0</v>
       </c>
-      <c r="BR75" s="3">
-        <v>2340</v>
+      <c r="BR75" s="1">
+        <v>0</v>
       </c>
       <c r="BS75" s="1">
         <v>0</v>
@@ -17854,52 +17857,52 @@
         <v>0</v>
       </c>
       <c r="J76" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
         <v>1</v>
       </c>
       <c r="L76" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M76" s="1">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0</v>
+      </c>
+      <c r="O76" s="1">
+        <v>2</v>
+      </c>
+      <c r="P76" s="1">
         <v>1</v>
-      </c>
-      <c r="N76" s="1">
-        <v>1</v>
-      </c>
-      <c r="O76" s="1">
-        <v>0</v>
-      </c>
-      <c r="P76" s="1">
-        <v>3</v>
       </c>
       <c r="Q76" s="1">
         <v>1</v>
       </c>
       <c r="R76" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S76" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T76" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U76" s="1">
         <v>0</v>
       </c>
       <c r="V76" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W76" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X76" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y76" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z76" s="1">
         <v>0</v>
@@ -17997,53 +18000,53 @@
       <c r="BE76" s="1">
         <v>0</v>
       </c>
-      <c r="BF76" s="3">
-        <v>8976</v>
+      <c r="BF76" s="1">
+        <v>0</v>
       </c>
       <c r="BG76" s="3">
-        <v>1448</v>
+        <v>1249</v>
       </c>
       <c r="BH76" s="3">
-        <v>4344</v>
-      </c>
-      <c r="BI76" s="3">
-        <v>1448</v>
-      </c>
-      <c r="BJ76" s="3">
-        <v>1448</v>
-      </c>
-      <c r="BK76" s="1">
-        <v>0</v>
+        <v>2498</v>
+      </c>
+      <c r="BI76" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ76" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK76" s="3">
+        <v>2498</v>
       </c>
       <c r="BL76" s="3">
-        <v>4344</v>
+        <v>1249</v>
       </c>
       <c r="BM76" s="3">
-        <v>1448</v>
-      </c>
-      <c r="BN76" s="3">
-        <v>5400</v>
-      </c>
-      <c r="BO76" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP76" s="3">
-        <v>-1448</v>
+        <v>1249</v>
+      </c>
+      <c r="BN76" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO76" s="3">
+        <v>2340</v>
+      </c>
+      <c r="BP76" s="1">
+        <v>0</v>
       </c>
       <c r="BQ76" s="1">
         <v>0</v>
       </c>
-      <c r="BR76" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS76" s="3">
-        <v>2700</v>
-      </c>
-      <c r="BT76" s="3">
-        <v>4050</v>
-      </c>
-      <c r="BU76" s="3">
-        <v>4140</v>
+      <c r="BR76" s="3">
+        <v>2340</v>
+      </c>
+      <c r="BS76" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT76" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU76" s="1">
+        <v>0</v>
       </c>
       <c r="BV76" s="4"/>
     </row>
@@ -18076,52 +18079,52 @@
         <v>0</v>
       </c>
       <c r="J77" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77" s="1">
         <v>0</v>
       </c>
       <c r="P77" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S77" s="1">
         <v>0</v>
       </c>
       <c r="T77" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U77" s="1">
         <v>0</v>
       </c>
       <c r="V77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W77" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X77" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y77" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z77" s="1">
         <v>0</v>
@@ -18219,53 +18222,53 @@
       <c r="BE77" s="1">
         <v>0</v>
       </c>
-      <c r="BF77" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG77" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH77" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI77" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ77" s="1">
-        <v>0</v>
+      <c r="BF77" s="3">
+        <v>8976</v>
+      </c>
+      <c r="BG77" s="3">
+        <v>1448</v>
+      </c>
+      <c r="BH77" s="3">
+        <v>4344</v>
+      </c>
+      <c r="BI77" s="3">
+        <v>1448</v>
+      </c>
+      <c r="BJ77" s="3">
+        <v>1448</v>
       </c>
       <c r="BK77" s="1">
         <v>0</v>
       </c>
-      <c r="BL77" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM77" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN77" s="1">
-        <v>0</v>
+      <c r="BL77" s="3">
+        <v>4344</v>
+      </c>
+      <c r="BM77" s="3">
+        <v>1448</v>
+      </c>
+      <c r="BN77" s="3">
+        <v>5400</v>
       </c>
       <c r="BO77" s="1">
         <v>0</v>
       </c>
-      <c r="BP77" s="1">
-        <v>0</v>
+      <c r="BP77" s="3">
+        <v>-1448</v>
       </c>
       <c r="BQ77" s="1">
         <v>0</v>
       </c>
-      <c r="BR77" s="3">
-        <v>1544</v>
-      </c>
-      <c r="BS77" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT77" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU77" s="1">
-        <v>0</v>
+      <c r="BR77" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS77" s="3">
+        <v>2700</v>
+      </c>
+      <c r="BT77" s="3">
+        <v>4050</v>
+      </c>
+      <c r="BU77" s="3">
+        <v>4140</v>
       </c>
       <c r="BV77" s="4"/>
     </row>
@@ -18319,32 +18322,32 @@
         <v>0</v>
       </c>
       <c r="Q78" s="1">
+        <v>0</v>
+      </c>
+      <c r="R78" s="1">
+        <v>0</v>
+      </c>
+      <c r="S78" s="1">
+        <v>0</v>
+      </c>
+      <c r="T78" s="1">
+        <v>0</v>
+      </c>
+      <c r="U78" s="1">
+        <v>0</v>
+      </c>
+      <c r="V78" s="1">
+        <v>1</v>
+      </c>
+      <c r="W78" s="1">
+        <v>0</v>
+      </c>
+      <c r="X78" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="1">
         <v>2</v>
       </c>
-      <c r="R78" s="1">
-        <v>1</v>
-      </c>
-      <c r="S78" s="1">
-        <v>1</v>
-      </c>
-      <c r="T78" s="1">
-        <v>0</v>
-      </c>
-      <c r="U78" s="1">
-        <v>0</v>
-      </c>
-      <c r="V78" s="1">
-        <v>0</v>
-      </c>
-      <c r="W78" s="1">
-        <v>0</v>
-      </c>
-      <c r="X78" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y78" s="1">
-        <v>0</v>
-      </c>
       <c r="Z78" s="1">
         <v>0</v>
       </c>
@@ -18462,32 +18465,32 @@
       <c r="BL78" s="1">
         <v>0</v>
       </c>
-      <c r="BM78" s="3">
+      <c r="BM78" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN78" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO78" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP78" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ78" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR78" s="3">
+        <v>1544</v>
+      </c>
+      <c r="BS78" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT78" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU78" s="3">
         <v>2896</v>
-      </c>
-      <c r="BN78" s="3">
-        <v>1544</v>
-      </c>
-      <c r="BO78" s="3">
-        <v>1641</v>
-      </c>
-      <c r="BP78" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ78" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR78" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS78" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT78" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU78" s="1">
-        <v>0</v>
       </c>
       <c r="BV78" s="4"/>
     </row>
@@ -18541,13 +18544,13 @@
         <v>0</v>
       </c>
       <c r="Q79" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79" s="1">
         <v>0</v>
@@ -18684,14 +18687,14 @@
       <c r="BL79" s="1">
         <v>0</v>
       </c>
-      <c r="BM79" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN79" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO79" s="1">
-        <v>0</v>
+      <c r="BM79" s="3">
+        <v>2896</v>
+      </c>
+      <c r="BN79" s="3">
+        <v>1544</v>
+      </c>
+      <c r="BO79" s="3">
+        <v>1641</v>
       </c>
       <c r="BP79" s="1">
         <v>0</v>
@@ -18781,7 +18784,7 @@
         <v>0</v>
       </c>
       <c r="W80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X80" s="1">
         <v>0</v>
@@ -18925,7 +18928,7 @@
         <v>0</v>
       </c>
       <c r="BS80" s="1">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="BT80" s="1">
         <v>0</v>
@@ -18973,10 +18976,10 @@
         <v>0</v>
       </c>
       <c r="M81" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" s="1">
         <v>0</v>
@@ -19006,7 +19009,7 @@
         <v>1</v>
       </c>
       <c r="X81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="1">
         <v>0</v>
@@ -19116,11 +19119,11 @@
       <c r="BH81" s="1">
         <v>0</v>
       </c>
-      <c r="BI81" s="3">
-        <v>2250</v>
-      </c>
-      <c r="BJ81" s="3">
-        <v>1200</v>
+      <c r="BI81" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ81" s="1">
+        <v>0</v>
       </c>
       <c r="BK81" s="1">
         <v>0</v>
@@ -19146,11 +19149,11 @@
       <c r="BR81" s="1">
         <v>0</v>
       </c>
-      <c r="BS81" s="3">
-        <v>1200</v>
-      </c>
-      <c r="BT81" s="3">
-        <v>1125</v>
+      <c r="BS81" s="1">
+        <v>984</v>
+      </c>
+      <c r="BT81" s="1">
+        <v>0</v>
       </c>
       <c r="BU81" s="1">
         <v>0</v>
@@ -19195,10 +19198,10 @@
         <v>0</v>
       </c>
       <c r="M82" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" s="1">
         <v>0</v>
@@ -19216,22 +19219,22 @@
         <v>0</v>
       </c>
       <c r="T82" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U82" s="1">
         <v>0</v>
       </c>
       <c r="V82" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W82" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z82" s="1">
         <v>0</v>
@@ -19338,11 +19341,11 @@
       <c r="BH82" s="1">
         <v>0</v>
       </c>
-      <c r="BI82" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ82" s="1">
-        <v>0</v>
+      <c r="BI82" s="3">
+        <v>2250</v>
+      </c>
+      <c r="BJ82" s="3">
+        <v>1200</v>
       </c>
       <c r="BK82" s="1">
         <v>0</v>
@@ -19359,23 +19362,23 @@
       <c r="BO82" s="1">
         <v>0</v>
       </c>
-      <c r="BP82" s="3">
-        <v>4245</v>
+      <c r="BP82" s="1">
+        <v>0</v>
       </c>
       <c r="BQ82" s="1">
         <v>0</v>
       </c>
-      <c r="BR82" s="3">
-        <v>-1415</v>
+      <c r="BR82" s="1">
+        <v>0</v>
       </c>
       <c r="BS82" s="3">
-        <v>6494</v>
-      </c>
-      <c r="BT82" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU82" s="1">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="BT82" s="3">
+        <v>1125</v>
+      </c>
+      <c r="BU82" s="3">
+        <v>1125</v>
       </c>
       <c r="BV82" s="4"/>
     </row>
@@ -19426,7 +19429,7 @@
         <v>0</v>
       </c>
       <c r="P83" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="1">
         <v>0</v>
@@ -19438,22 +19441,22 @@
         <v>0</v>
       </c>
       <c r="T83" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U83" s="1">
         <v>0</v>
       </c>
       <c r="V83" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W83" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X83" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y83" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z83" s="1">
         <v>0</v>
@@ -19569,8 +19572,8 @@
       <c r="BK83" s="1">
         <v>0</v>
       </c>
-      <c r="BL83" s="3">
-        <v>3088</v>
+      <c r="BL83" s="1">
+        <v>0</v>
       </c>
       <c r="BM83" s="1">
         <v>0</v>
@@ -19582,22 +19585,22 @@
         <v>0</v>
       </c>
       <c r="BP83" s="3">
-        <v>3282</v>
+        <v>4245</v>
       </c>
       <c r="BQ83" s="1">
         <v>0</v>
       </c>
       <c r="BR83" s="3">
-        <v>2536</v>
+        <v>-1415</v>
       </c>
       <c r="BS83" s="3">
-        <v>14768</v>
-      </c>
-      <c r="BT83" s="3">
-        <v>4048</v>
-      </c>
-      <c r="BU83" s="3">
-        <v>12259.6</v>
+        <v>6494</v>
+      </c>
+      <c r="BT83" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU83" s="1">
+        <v>0</v>
       </c>
       <c r="BV83" s="4"/>
     </row>
@@ -19645,10 +19648,10 @@
         <v>0</v>
       </c>
       <c r="O84" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P84" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q84" s="1">
         <v>0</v>
@@ -19660,7 +19663,7 @@
         <v>0</v>
       </c>
       <c r="T84" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U84" s="1">
         <v>0</v>
@@ -19669,13 +19672,13 @@
         <v>1</v>
       </c>
       <c r="W84" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="X84" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y84" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z84" s="1">
         <v>0</v>
@@ -19788,11 +19791,11 @@
       <c r="BJ84" s="1">
         <v>0</v>
       </c>
-      <c r="BK84" s="3">
-        <v>8100</v>
-      </c>
-      <c r="BL84" s="1">
-        <v>0</v>
+      <c r="BK84" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL84" s="3">
+        <v>3088</v>
       </c>
       <c r="BM84" s="1">
         <v>0</v>
@@ -19803,23 +19806,23 @@
       <c r="BO84" s="1">
         <v>0</v>
       </c>
-      <c r="BP84" s="1">
-        <v>0</v>
+      <c r="BP84" s="3">
+        <v>3282</v>
       </c>
       <c r="BQ84" s="1">
         <v>0</v>
       </c>
       <c r="BR84" s="3">
-        <v>1125</v>
+        <v>2536</v>
       </c>
       <c r="BS84" s="3">
-        <v>1080.06</v>
-      </c>
-      <c r="BT84" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU84" s="1">
-        <v>0</v>
+        <v>14768</v>
+      </c>
+      <c r="BT84" s="3">
+        <v>4048</v>
+      </c>
+      <c r="BU84" s="3">
+        <v>13707.6</v>
       </c>
       <c r="BV84" s="4"/>
     </row>
@@ -19861,16 +19864,16 @@
         <v>0</v>
       </c>
       <c r="M85" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N85" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O85" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P85" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q85" s="1">
         <v>0</v>
@@ -19888,7 +19891,7 @@
         <v>0</v>
       </c>
       <c r="V85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W85" s="1">
         <v>1</v>
@@ -20004,17 +20007,17 @@
       <c r="BH85" s="1">
         <v>0</v>
       </c>
-      <c r="BI85" s="3">
-        <v>3600</v>
-      </c>
-      <c r="BJ85" s="3">
-        <v>1200</v>
+      <c r="BI85" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ85" s="1">
+        <v>0</v>
       </c>
       <c r="BK85" s="3">
-        <v>1800</v>
-      </c>
-      <c r="BL85" s="3">
-        <v>1200</v>
+        <v>8100</v>
+      </c>
+      <c r="BL85" s="1">
+        <v>0</v>
       </c>
       <c r="BM85" s="1">
         <v>0</v>
@@ -20031,11 +20034,11 @@
       <c r="BQ85" s="1">
         <v>0</v>
       </c>
-      <c r="BR85" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS85" s="1">
-        <v>580</v>
+      <c r="BR85" s="3">
+        <v>1125</v>
+      </c>
+      <c r="BS85" s="3">
+        <v>1080.06</v>
       </c>
       <c r="BT85" s="1">
         <v>0</v>
@@ -20080,46 +20083,46 @@
         <v>0</v>
       </c>
       <c r="L86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N86" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O86" s="1">
         <v>3</v>
       </c>
       <c r="P86" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>0</v>
+      </c>
+      <c r="R86" s="1">
+        <v>0</v>
+      </c>
+      <c r="S86" s="1">
+        <v>0</v>
+      </c>
+      <c r="T86" s="1">
+        <v>0</v>
+      </c>
+      <c r="U86" s="1">
+        <v>0</v>
+      </c>
+      <c r="V86" s="1">
+        <v>0</v>
+      </c>
+      <c r="W86" s="1">
         <v>1</v>
       </c>
-      <c r="Q86" s="1">
-        <v>0</v>
-      </c>
-      <c r="R86" s="1">
-        <v>0</v>
-      </c>
-      <c r="S86" s="1">
-        <v>1</v>
-      </c>
-      <c r="T86" s="1">
-        <v>-1</v>
-      </c>
-      <c r="U86" s="1">
-        <v>0</v>
-      </c>
-      <c r="V86" s="1">
-        <v>4</v>
-      </c>
-      <c r="W86" s="1">
-        <v>2</v>
-      </c>
       <c r="X86" s="1">
         <v>0</v>
       </c>
       <c r="Y86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z86" s="1">
         <v>0</v>
@@ -20224,19 +20227,19 @@
         <v>0</v>
       </c>
       <c r="BH86" s="1">
-        <v>720</v>
-      </c>
-      <c r="BI86" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ86" s="1">
-        <v>720</v>
+        <v>0</v>
+      </c>
+      <c r="BI86" s="3">
+        <v>3600</v>
+      </c>
+      <c r="BJ86" s="3">
+        <v>1200</v>
       </c>
       <c r="BK86" s="3">
-        <v>2160</v>
-      </c>
-      <c r="BL86" s="1">
-        <v>695</v>
+        <v>1800</v>
+      </c>
+      <c r="BL86" s="3">
+        <v>1200</v>
       </c>
       <c r="BM86" s="1">
         <v>0</v>
@@ -20245,25 +20248,25 @@
         <v>0</v>
       </c>
       <c r="BO86" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="BP86" s="1">
-        <v>-720</v>
+        <v>0</v>
       </c>
       <c r="BQ86" s="1">
         <v>0</v>
       </c>
-      <c r="BR86" s="3">
-        <v>2830</v>
-      </c>
-      <c r="BS86" s="3">
-        <v>1390</v>
+      <c r="BR86" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS86" s="1">
+        <v>580</v>
       </c>
       <c r="BT86" s="1">
         <v>0</v>
       </c>
       <c r="BU86" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="BV86" s="4"/>
     </row>
@@ -20302,19 +20305,19 @@
         <v>0</v>
       </c>
       <c r="L87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" s="1">
         <v>0</v>
       </c>
       <c r="N87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87" s="1">
         <v>0</v>
@@ -20323,25 +20326,25 @@
         <v>0</v>
       </c>
       <c r="S87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T87" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U87" s="1">
         <v>0</v>
       </c>
       <c r="V87" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W87" s="1">
         <v>2</v>
       </c>
       <c r="X87" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z87" s="1">
         <v>0</v>
@@ -20446,19 +20449,19 @@
         <v>0</v>
       </c>
       <c r="BH87" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="BI87" s="1">
         <v>0</v>
       </c>
       <c r="BJ87" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK87" s="1">
-        <v>0</v>
+        <v>720</v>
+      </c>
+      <c r="BK87" s="3">
+        <v>2160</v>
       </c>
       <c r="BL87" s="1">
-        <v>0</v>
+        <v>695</v>
       </c>
       <c r="BM87" s="1">
         <v>0</v>
@@ -20467,25 +20470,25 @@
         <v>0</v>
       </c>
       <c r="BO87" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="BP87" s="1">
-        <v>0</v>
+        <v>-720</v>
       </c>
       <c r="BQ87" s="1">
         <v>0</v>
       </c>
-      <c r="BR87" s="1">
-        <v>0</v>
+      <c r="BR87" s="3">
+        <v>2830</v>
       </c>
       <c r="BS87" s="3">
-        <v>1200</v>
-      </c>
-      <c r="BT87" s="3">
-        <v>1200</v>
+        <v>1390</v>
+      </c>
+      <c r="BT87" s="1">
+        <v>0</v>
       </c>
       <c r="BU87" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="BV87" s="4"/>
     </row>
@@ -20527,22 +20530,22 @@
         <v>0</v>
       </c>
       <c r="M88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O88" s="1">
         <v>0</v>
       </c>
       <c r="P88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88" s="1">
         <v>0</v>
       </c>
       <c r="R88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S88" s="1">
         <v>0</v>
@@ -20557,10 +20560,10 @@
         <v>0</v>
       </c>
       <c r="W88" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X88" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y88" s="1">
         <v>0</v>
@@ -20671,22 +20674,22 @@
         <v>0</v>
       </c>
       <c r="BI88" s="1">
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="BJ88" s="1">
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="BK88" s="1">
         <v>0</v>
       </c>
       <c r="BL88" s="1">
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="BM88" s="1">
         <v>0</v>
       </c>
       <c r="BN88" s="1">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="BO88" s="1">
         <v>0</v>
@@ -20700,11 +20703,11 @@
       <c r="BR88" s="1">
         <v>0</v>
       </c>
-      <c r="BS88" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT88" s="1">
-        <v>0</v>
+      <c r="BS88" s="3">
+        <v>1200</v>
+      </c>
+      <c r="BT88" s="3">
+        <v>1200</v>
       </c>
       <c r="BU88" s="1">
         <v>0</v>
@@ -20740,7 +20743,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" s="1">
         <v>0</v>
@@ -20752,22 +20755,22 @@
         <v>1</v>
       </c>
       <c r="N89" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O89" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P89" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q89" s="1">
+        <v>0</v>
+      </c>
+      <c r="R89" s="1">
         <v>1</v>
       </c>
-      <c r="R89" s="1">
-        <v>0</v>
-      </c>
       <c r="S89" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T89" s="1">
         <v>0</v>
@@ -20776,13 +20779,13 @@
         <v>0</v>
       </c>
       <c r="V89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="1">
         <v>0</v>
@@ -20883,8 +20886,8 @@
       <c r="BE89" s="1">
         <v>0</v>
       </c>
-      <c r="BF89" s="3">
-        <v>1275</v>
+      <c r="BF89" s="1">
+        <v>0</v>
       </c>
       <c r="BG89" s="1">
         <v>0</v>
@@ -20892,26 +20895,26 @@
       <c r="BH89" s="1">
         <v>0</v>
       </c>
-      <c r="BI89" s="3">
-        <v>1275</v>
-      </c>
-      <c r="BJ89" s="3">
-        <v>2250</v>
-      </c>
-      <c r="BK89" s="3">
-        <v>9000</v>
-      </c>
-      <c r="BL89" s="3">
-        <v>4725</v>
-      </c>
-      <c r="BM89" s="3">
-        <v>1200</v>
+      <c r="BI89" s="1">
+        <v>770</v>
+      </c>
+      <c r="BJ89" s="1">
+        <v>770</v>
+      </c>
+      <c r="BK89" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL89" s="1">
+        <v>770</v>
+      </c>
+      <c r="BM89" s="1">
+        <v>0</v>
       </c>
       <c r="BN89" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO89" s="3">
-        <v>3450</v>
+        <v>749</v>
+      </c>
+      <c r="BO89" s="1">
+        <v>0</v>
       </c>
       <c r="BP89" s="1">
         <v>0</v>
@@ -20919,14 +20922,14 @@
       <c r="BQ89" s="1">
         <v>0</v>
       </c>
-      <c r="BR89" s="3">
-        <v>1125</v>
-      </c>
-      <c r="BS89" s="3">
-        <v>1125</v>
-      </c>
-      <c r="BT89" s="3">
-        <v>1125</v>
+      <c r="BR89" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS89" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT89" s="1">
+        <v>0</v>
       </c>
       <c r="BU89" s="1">
         <v>0</v>
@@ -20962,46 +20965,46 @@
         <v>0</v>
       </c>
       <c r="J90" s="1">
+        <v>1</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0</v>
+      </c>
+      <c r="M90" s="1">
+        <v>1</v>
+      </c>
+      <c r="N90" s="1">
         <v>2</v>
       </c>
-      <c r="K90" s="1">
+      <c r="O90" s="1">
+        <v>8</v>
+      </c>
+      <c r="P90" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q90" s="1">
         <v>1</v>
       </c>
-      <c r="L90" s="1">
+      <c r="R90" s="1">
+        <v>0</v>
+      </c>
+      <c r="S90" s="1">
+        <v>3</v>
+      </c>
+      <c r="T90" s="1">
+        <v>0</v>
+      </c>
+      <c r="U90" s="1">
+        <v>0</v>
+      </c>
+      <c r="V90" s="1">
         <v>1</v>
       </c>
-      <c r="M90" s="1">
-        <v>0</v>
-      </c>
-      <c r="N90" s="1">
-        <v>4</v>
-      </c>
-      <c r="O90" s="1">
-        <v>4</v>
-      </c>
-      <c r="P90" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="1">
-        <v>0</v>
-      </c>
-      <c r="R90" s="1">
-        <v>0</v>
-      </c>
-      <c r="S90" s="1">
+      <c r="W90" s="1">
         <v>1</v>
-      </c>
-      <c r="T90" s="1">
-        <v>1</v>
-      </c>
-      <c r="U90" s="1">
-        <v>0</v>
-      </c>
-      <c r="V90" s="1">
-        <v>4</v>
-      </c>
-      <c r="W90" s="1">
-        <v>2</v>
       </c>
       <c r="X90" s="1">
         <v>1</v>
@@ -21106,49 +21109,49 @@
         <v>0</v>
       </c>
       <c r="BF90" s="3">
-        <v>1440</v>
+        <v>1275</v>
       </c>
       <c r="BG90" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="BH90" s="1">
-        <v>720</v>
-      </c>
-      <c r="BI90" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BI90" s="3">
+        <v>1275</v>
       </c>
       <c r="BJ90" s="3">
-        <v>2772</v>
+        <v>2250</v>
       </c>
       <c r="BK90" s="3">
-        <v>2880</v>
-      </c>
-      <c r="BL90" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM90" s="1">
-        <v>0</v>
+        <v>9000</v>
+      </c>
+      <c r="BL90" s="3">
+        <v>4725</v>
+      </c>
+      <c r="BM90" s="3">
+        <v>1200</v>
       </c>
       <c r="BN90" s="1">
         <v>0</v>
       </c>
-      <c r="BO90" s="1">
-        <v>720</v>
+      <c r="BO90" s="3">
+        <v>3450</v>
       </c>
       <c r="BP90" s="1">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="BQ90" s="1">
         <v>0</v>
       </c>
       <c r="BR90" s="3">
-        <v>2880</v>
+        <v>1125</v>
       </c>
       <c r="BS90" s="3">
-        <v>1440</v>
-      </c>
-      <c r="BT90" s="1">
-        <v>720</v>
+        <v>1125</v>
+      </c>
+      <c r="BT90" s="3">
+        <v>1125</v>
       </c>
       <c r="BU90" s="1">
         <v>0</v>
@@ -21184,49 +21187,49 @@
         <v>0</v>
       </c>
       <c r="J91" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K91" s="1">
         <v>1</v>
       </c>
       <c r="L91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" s="1">
+        <v>0</v>
+      </c>
+      <c r="N91" s="1">
+        <v>4</v>
+      </c>
+      <c r="O91" s="1">
+        <v>4</v>
+      </c>
+      <c r="P91" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>0</v>
+      </c>
+      <c r="R91" s="1">
+        <v>0</v>
+      </c>
+      <c r="S91" s="1">
         <v>1</v>
       </c>
-      <c r="N91" s="1">
-        <v>0</v>
-      </c>
-      <c r="O91" s="1">
-        <v>6</v>
-      </c>
-      <c r="P91" s="1">
+      <c r="T91" s="1">
+        <v>1</v>
+      </c>
+      <c r="U91" s="1">
+        <v>0</v>
+      </c>
+      <c r="V91" s="1">
+        <v>4</v>
+      </c>
+      <c r="W91" s="1">
         <v>2</v>
       </c>
-      <c r="Q91" s="1">
-        <v>2</v>
-      </c>
-      <c r="R91" s="1">
-        <v>0</v>
-      </c>
-      <c r="S91" s="1">
-        <v>3</v>
-      </c>
-      <c r="T91" s="1">
-        <v>0</v>
-      </c>
-      <c r="U91" s="1">
-        <v>0</v>
-      </c>
-      <c r="V91" s="1">
-        <v>0</v>
-      </c>
-      <c r="W91" s="1">
-        <v>0</v>
-      </c>
       <c r="X91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y91" s="1">
         <v>0</v>
@@ -21327,50 +21330,50 @@
       <c r="BE91" s="1">
         <v>0</v>
       </c>
-      <c r="BF91" s="1">
-        <v>0</v>
+      <c r="BF91" s="3">
+        <v>1440</v>
       </c>
       <c r="BG91" s="1">
-        <v>836</v>
+        <v>720</v>
       </c>
       <c r="BH91" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="BI91" s="1">
-        <v>892</v>
-      </c>
-      <c r="BJ91" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BJ91" s="3">
+        <v>2772</v>
       </c>
       <c r="BK91" s="3">
-        <v>5072</v>
-      </c>
-      <c r="BL91" s="3">
-        <v>1672</v>
-      </c>
-      <c r="BM91" s="3">
-        <v>1728</v>
+        <v>2880</v>
+      </c>
+      <c r="BL91" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM91" s="1">
+        <v>0</v>
       </c>
       <c r="BN91" s="1">
         <v>0</v>
       </c>
-      <c r="BO91" s="3">
-        <v>2472</v>
+      <c r="BO91" s="1">
+        <v>720</v>
       </c>
       <c r="BP91" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="BQ91" s="1">
         <v>0</v>
       </c>
-      <c r="BR91" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS91" s="1">
-        <v>0</v>
+      <c r="BR91" s="3">
+        <v>2880</v>
+      </c>
+      <c r="BS91" s="3">
+        <v>1440</v>
       </c>
       <c r="BT91" s="1">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="BU91" s="1">
         <v>0</v>
@@ -21406,34 +21409,34 @@
         <v>0</v>
       </c>
       <c r="J92" s="1">
+        <v>0</v>
+      </c>
+      <c r="K92" s="1">
+        <v>1</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0</v>
+      </c>
+      <c r="M92" s="1">
+        <v>1</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0</v>
+      </c>
+      <c r="O92" s="1">
+        <v>6</v>
+      </c>
+      <c r="P92" s="1">
         <v>2</v>
-      </c>
-      <c r="K92" s="1">
-        <v>6</v>
-      </c>
-      <c r="L92" s="1">
-        <v>7</v>
-      </c>
-      <c r="M92" s="1">
-        <v>0</v>
-      </c>
-      <c r="N92" s="1">
-        <v>4</v>
-      </c>
-      <c r="O92" s="1">
-        <v>1</v>
-      </c>
-      <c r="P92" s="1">
-        <v>1</v>
       </c>
       <c r="Q92" s="1">
         <v>2</v>
       </c>
       <c r="R92" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S92" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T92" s="1">
         <v>0</v>
@@ -21442,16 +21445,16 @@
         <v>0</v>
       </c>
       <c r="V92" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W92" s="1">
         <v>0</v>
       </c>
       <c r="X92" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y92" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z92" s="1">
         <v>0</v>
@@ -21549,35 +21552,35 @@
       <c r="BE92" s="1">
         <v>0</v>
       </c>
-      <c r="BF92" s="3">
-        <v>2198</v>
-      </c>
-      <c r="BG92" s="3">
-        <v>5697</v>
-      </c>
-      <c r="BH92" s="3">
-        <v>7693</v>
+      <c r="BF92" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG92" s="1">
+        <v>836</v>
+      </c>
+      <c r="BH92" s="1">
+        <v>0</v>
       </c>
       <c r="BI92" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ92" s="3">
-        <v>4469</v>
+        <v>892</v>
+      </c>
+      <c r="BJ92" s="1">
+        <v>0</v>
       </c>
       <c r="BK92" s="3">
-        <v>1099</v>
+        <v>5072</v>
       </c>
       <c r="BL92" s="3">
-        <v>1172</v>
+        <v>1672</v>
       </c>
       <c r="BM92" s="3">
-        <v>2198</v>
-      </c>
-      <c r="BN92" s="3">
-        <v>2198</v>
-      </c>
-      <c r="BO92" s="1">
-        <v>0</v>
+        <v>1728</v>
+      </c>
+      <c r="BN92" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO92" s="3">
+        <v>2472</v>
       </c>
       <c r="BP92" s="1">
         <v>0</v>
@@ -21585,17 +21588,17 @@
       <c r="BQ92" s="1">
         <v>0</v>
       </c>
-      <c r="BR92" s="3">
-        <v>5495</v>
+      <c r="BR92" s="1">
+        <v>0</v>
       </c>
       <c r="BS92" s="1">
         <v>0</v>
       </c>
-      <c r="BT92" s="3">
-        <v>5568</v>
-      </c>
-      <c r="BU92" s="3">
-        <v>4834</v>
+      <c r="BT92" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU92" s="1">
+        <v>0</v>
       </c>
       <c r="BV92" s="4"/>
     </row>
@@ -21628,31 +21631,31 @@
         <v>0</v>
       </c>
       <c r="J93" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K93" s="1">
+        <v>6</v>
+      </c>
+      <c r="L93" s="1">
+        <v>7</v>
+      </c>
+      <c r="M93" s="1">
+        <v>0</v>
+      </c>
+      <c r="N93" s="1">
+        <v>4</v>
+      </c>
+      <c r="O93" s="1">
         <v>1</v>
       </c>
-      <c r="L93" s="1">
+      <c r="P93" s="1">
         <v>1</v>
       </c>
-      <c r="M93" s="1">
-        <v>1</v>
-      </c>
-      <c r="N93" s="1">
-        <v>1</v>
-      </c>
-      <c r="O93" s="1">
-        <v>0</v>
-      </c>
-      <c r="P93" s="1">
-        <v>0</v>
-      </c>
       <c r="Q93" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R93" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S93" s="1">
         <v>0</v>
@@ -21664,16 +21667,16 @@
         <v>0</v>
       </c>
       <c r="V93" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W93" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X93" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y93" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z93" s="1">
         <v>0</v>
@@ -21771,32 +21774,32 @@
       <c r="BE93" s="1">
         <v>0</v>
       </c>
-      <c r="BF93" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG93" s="1">
-        <v>770</v>
-      </c>
-      <c r="BH93" s="1">
-        <v>770</v>
+      <c r="BF93" s="3">
+        <v>2198</v>
+      </c>
+      <c r="BG93" s="3">
+        <v>5697</v>
+      </c>
+      <c r="BH93" s="3">
+        <v>7693</v>
       </c>
       <c r="BI93" s="1">
-        <v>770</v>
-      </c>
-      <c r="BJ93" s="1">
-        <v>770</v>
-      </c>
-      <c r="BK93" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL93" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM93" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN93" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BJ93" s="3">
+        <v>4469</v>
+      </c>
+      <c r="BK93" s="3">
+        <v>1099</v>
+      </c>
+      <c r="BL93" s="3">
+        <v>1172</v>
+      </c>
+      <c r="BM93" s="3">
+        <v>2198</v>
+      </c>
+      <c r="BN93" s="3">
+        <v>2198</v>
       </c>
       <c r="BO93" s="1">
         <v>0</v>
@@ -21807,17 +21810,17 @@
       <c r="BQ93" s="1">
         <v>0</v>
       </c>
-      <c r="BR93" s="1">
-        <v>770</v>
-      </c>
-      <c r="BS93" s="3">
-        <v>1519</v>
-      </c>
-      <c r="BT93" s="1">
-        <v>749</v>
-      </c>
-      <c r="BU93" s="1">
-        <v>749</v>
+      <c r="BR93" s="3">
+        <v>5495</v>
+      </c>
+      <c r="BS93" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT93" s="3">
+        <v>5568</v>
+      </c>
+      <c r="BU93" s="3">
+        <v>4834</v>
       </c>
       <c r="BV93" s="4"/>
     </row>
@@ -21853,16 +21856,16 @@
         <v>0</v>
       </c>
       <c r="K94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O94" s="1">
         <v>0</v>
@@ -21886,16 +21889,16 @@
         <v>0</v>
       </c>
       <c r="V94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W94" s="1">
+        <v>2</v>
+      </c>
+      <c r="X94" s="1">
         <v>1</v>
       </c>
-      <c r="X94" s="1">
-        <v>0</v>
-      </c>
       <c r="Y94" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z94" s="1">
         <v>0</v>
@@ -21997,16 +22000,16 @@
         <v>0</v>
       </c>
       <c r="BG94" s="1">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="BH94" s="1">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="BI94" s="1">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="BJ94" s="1">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="BK94" s="1">
         <v>0</v>
@@ -22030,16 +22033,16 @@
         <v>0</v>
       </c>
       <c r="BR94" s="1">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="BS94" s="3">
-        <v>1542</v>
+        <v>1519</v>
       </c>
       <c r="BT94" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU94" s="1">
-        <v>0</v>
+        <v>749</v>
+      </c>
+      <c r="BU94" s="3">
+        <v>1519</v>
       </c>
       <c r="BV94" s="4"/>
     </row>
@@ -22078,7 +22081,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M95" s="1">
         <v>0</v>
@@ -22096,7 +22099,7 @@
         <v>0</v>
       </c>
       <c r="R95" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S95" s="1">
         <v>0</v>
@@ -22111,13 +22114,13 @@
         <v>0</v>
       </c>
       <c r="W95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X95" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y95" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z95" s="1">
         <v>0</v>
@@ -22221,8 +22224,8 @@
       <c r="BG95" s="1">
         <v>0</v>
       </c>
-      <c r="BH95" s="3">
-        <v>3390</v>
+      <c r="BH95" s="1">
+        <v>0</v>
       </c>
       <c r="BI95" s="1">
         <v>0</v>
@@ -22239,8 +22242,8 @@
       <c r="BM95" s="1">
         <v>0</v>
       </c>
-      <c r="BN95" s="3">
-        <v>3390</v>
+      <c r="BN95" s="1">
+        <v>0</v>
       </c>
       <c r="BO95" s="1">
         <v>0</v>
@@ -22254,14 +22257,14 @@
       <c r="BR95" s="1">
         <v>0</v>
       </c>
-      <c r="BS95" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT95" s="3">
-        <v>7232</v>
-      </c>
-      <c r="BU95" s="3">
-        <v>3616</v>
+      <c r="BS95" s="3">
+        <v>1542</v>
+      </c>
+      <c r="BT95" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU95" s="1">
+        <v>0</v>
       </c>
       <c r="BV95" s="4"/>
     </row>
@@ -22294,25 +22297,25 @@
         <v>0</v>
       </c>
       <c r="J96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" s="1">
         <v>0</v>
       </c>
       <c r="L96" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M96" s="1">
         <v>0</v>
       </c>
       <c r="N96" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O96" s="1">
         <v>0</v>
       </c>
       <c r="P96" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="1">
         <v>0</v>
@@ -22321,26 +22324,26 @@
         <v>2</v>
       </c>
       <c r="S96" s="1">
+        <v>0</v>
+      </c>
+      <c r="T96" s="1">
+        <v>0</v>
+      </c>
+      <c r="U96" s="1">
+        <v>0</v>
+      </c>
+      <c r="V96" s="1">
+        <v>0</v>
+      </c>
+      <c r="W96" s="1">
+        <v>0</v>
+      </c>
+      <c r="X96" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y96" s="1">
         <v>2</v>
       </c>
-      <c r="T96" s="1">
-        <v>1</v>
-      </c>
-      <c r="U96" s="1">
-        <v>0</v>
-      </c>
-      <c r="V96" s="1">
-        <v>3</v>
-      </c>
-      <c r="W96" s="1">
-        <v>0</v>
-      </c>
-      <c r="X96" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y96" s="1">
-        <v>0</v>
-      </c>
       <c r="Z96" s="1">
         <v>0</v>
       </c>
@@ -22438,52 +22441,52 @@
         <v>0</v>
       </c>
       <c r="BF96" s="1">
-        <v>698.02</v>
+        <v>0</v>
       </c>
       <c r="BG96" s="1">
         <v>0</v>
       </c>
-      <c r="BH96" s="1">
-        <v>0</v>
+      <c r="BH96" s="3">
+        <v>3390</v>
       </c>
       <c r="BI96" s="1">
         <v>0</v>
       </c>
-      <c r="BJ96" s="3">
-        <v>2094</v>
+      <c r="BJ96" s="1">
+        <v>0</v>
       </c>
       <c r="BK96" s="1">
         <v>0</v>
       </c>
       <c r="BL96" s="1">
-        <v>-698</v>
+        <v>0</v>
       </c>
       <c r="BM96" s="1">
         <v>0</v>
       </c>
       <c r="BN96" s="3">
-        <v>1396</v>
-      </c>
-      <c r="BO96" s="3">
-        <v>1396</v>
+        <v>3390</v>
+      </c>
+      <c r="BO96" s="1">
+        <v>0</v>
       </c>
       <c r="BP96" s="1">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="BQ96" s="1">
         <v>0</v>
       </c>
-      <c r="BR96" s="3">
-        <v>2094</v>
+      <c r="BR96" s="1">
+        <v>0</v>
       </c>
       <c r="BS96" s="1">
         <v>0</v>
       </c>
-      <c r="BT96" s="1">
-        <v>698</v>
-      </c>
-      <c r="BU96" s="1">
-        <v>0</v>
+      <c r="BT96" s="3">
+        <v>7232</v>
+      </c>
+      <c r="BU96" s="3">
+        <v>3616</v>
       </c>
       <c r="BV96" s="4"/>
     </row>
@@ -22516,52 +22519,52 @@
         <v>0</v>
       </c>
       <c r="J97" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K97" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L97" s="1">
+        <v>0</v>
+      </c>
+      <c r="M97" s="1">
+        <v>0</v>
+      </c>
+      <c r="N97" s="1">
+        <v>3</v>
+      </c>
+      <c r="O97" s="1">
+        <v>0</v>
+      </c>
+      <c r="P97" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>0</v>
+      </c>
+      <c r="R97" s="1">
+        <v>2</v>
+      </c>
+      <c r="S97" s="1">
+        <v>2</v>
+      </c>
+      <c r="T97" s="1">
         <v>1</v>
       </c>
-      <c r="M97" s="1">
-        <v>6</v>
-      </c>
-      <c r="N97" s="1">
-        <v>2</v>
-      </c>
-      <c r="O97" s="1">
-        <v>2</v>
-      </c>
-      <c r="P97" s="1">
+      <c r="U97" s="1">
+        <v>0</v>
+      </c>
+      <c r="V97" s="1">
+        <v>3</v>
+      </c>
+      <c r="W97" s="1">
+        <v>0</v>
+      </c>
+      <c r="X97" s="1">
         <v>1</v>
       </c>
-      <c r="Q97" s="1">
-        <v>3</v>
-      </c>
-      <c r="R97" s="1">
-        <v>1</v>
-      </c>
-      <c r="S97" s="1">
-        <v>0</v>
-      </c>
-      <c r="T97" s="1">
-        <v>4</v>
-      </c>
-      <c r="U97" s="1">
-        <v>0</v>
-      </c>
-      <c r="V97" s="1">
-        <v>0</v>
-      </c>
-      <c r="W97" s="1">
-        <v>1</v>
-      </c>
-      <c r="X97" s="1">
-        <v>3</v>
-      </c>
       <c r="Y97" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z97" s="1">
         <v>0</v>
@@ -22659,53 +22662,53 @@
       <c r="BE97" s="1">
         <v>0</v>
       </c>
-      <c r="BF97" s="3">
-        <v>5246</v>
-      </c>
-      <c r="BG97" s="3">
-        <v>4620</v>
+      <c r="BF97" s="1">
+        <v>698.02</v>
+      </c>
+      <c r="BG97" s="1">
+        <v>0</v>
       </c>
       <c r="BH97" s="1">
-        <v>770</v>
-      </c>
-      <c r="BI97" s="3">
-        <v>4620</v>
+        <v>0</v>
+      </c>
+      <c r="BI97" s="1">
+        <v>0</v>
       </c>
       <c r="BJ97" s="3">
-        <v>1540</v>
-      </c>
-      <c r="BK97" s="3">
-        <v>1540</v>
+        <v>2094</v>
+      </c>
+      <c r="BK97" s="1">
+        <v>0</v>
       </c>
       <c r="BL97" s="1">
-        <v>770</v>
-      </c>
-      <c r="BM97" s="3">
-        <v>2267</v>
-      </c>
-      <c r="BN97" s="1">
-        <v>770</v>
-      </c>
-      <c r="BO97" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP97" s="3">
-        <v>3080</v>
+        <v>-698</v>
+      </c>
+      <c r="BM97" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN97" s="3">
+        <v>1396</v>
+      </c>
+      <c r="BO97" s="3">
+        <v>1396</v>
+      </c>
+      <c r="BP97" s="1">
+        <v>698</v>
       </c>
       <c r="BQ97" s="1">
         <v>0</v>
       </c>
-      <c r="BR97" s="1">
-        <v>0</v>
+      <c r="BR97" s="3">
+        <v>2094</v>
       </c>
       <c r="BS97" s="1">
-        <v>770</v>
-      </c>
-      <c r="BT97" s="3">
-        <v>2310</v>
-      </c>
-      <c r="BU97" s="3">
-        <v>2310</v>
+        <v>0</v>
+      </c>
+      <c r="BT97" s="1">
+        <v>698</v>
+      </c>
+      <c r="BU97" s="1">
+        <v>0</v>
       </c>
       <c r="BV97" s="4"/>
     </row>
@@ -22738,52 +22741,52 @@
         <v>0</v>
       </c>
       <c r="J98" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K98" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" s="1">
+        <v>6</v>
+      </c>
+      <c r="N98" s="1">
+        <v>2</v>
+      </c>
+      <c r="O98" s="1">
+        <v>2</v>
+      </c>
+      <c r="P98" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>3</v>
+      </c>
+      <c r="R98" s="1">
+        <v>1</v>
+      </c>
+      <c r="S98" s="1">
+        <v>0</v>
+      </c>
+      <c r="T98" s="1">
         <v>4</v>
       </c>
-      <c r="N98" s="1">
-        <v>0</v>
-      </c>
-      <c r="O98" s="1">
-        <v>0</v>
-      </c>
-      <c r="P98" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="1">
-        <v>4</v>
-      </c>
-      <c r="R98" s="1">
-        <v>0</v>
-      </c>
-      <c r="S98" s="1">
+      <c r="U98" s="1">
+        <v>0</v>
+      </c>
+      <c r="V98" s="1">
+        <v>0</v>
+      </c>
+      <c r="W98" s="1">
         <v>1</v>
       </c>
-      <c r="T98" s="1">
-        <v>0</v>
-      </c>
-      <c r="U98" s="1">
-        <v>0</v>
-      </c>
-      <c r="V98" s="1">
-        <v>0</v>
-      </c>
-      <c r="W98" s="1">
-        <v>0</v>
-      </c>
       <c r="X98" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y98" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z98" s="1">
         <v>0</v>
@@ -22881,38 +22884,38 @@
       <c r="BE98" s="1">
         <v>0</v>
       </c>
-      <c r="BF98" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG98" s="1">
-        <v>0</v>
+      <c r="BF98" s="3">
+        <v>5246</v>
+      </c>
+      <c r="BG98" s="3">
+        <v>4620</v>
       </c>
       <c r="BH98" s="1">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="BI98" s="3">
-        <v>5660</v>
-      </c>
-      <c r="BJ98" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK98" s="1">
-        <v>0</v>
+        <v>4620</v>
+      </c>
+      <c r="BJ98" s="3">
+        <v>1540</v>
+      </c>
+      <c r="BK98" s="3">
+        <v>1540</v>
       </c>
       <c r="BL98" s="1">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="BM98" s="3">
-        <v>5328</v>
+        <v>2267</v>
       </c>
       <c r="BN98" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO98" s="3">
-        <v>1332</v>
-      </c>
-      <c r="BP98" s="1">
-        <v>0</v>
+        <v>770</v>
+      </c>
+      <c r="BO98" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP98" s="3">
+        <v>3080</v>
       </c>
       <c r="BQ98" s="1">
         <v>0</v>
@@ -22921,13 +22924,13 @@
         <v>0</v>
       </c>
       <c r="BS98" s="1">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="BT98" s="3">
-        <v>1332</v>
+        <v>2310</v>
       </c>
       <c r="BU98" s="3">
-        <v>2498</v>
+        <v>2310</v>
       </c>
       <c r="BV98" s="4"/>
     </row>
@@ -22960,53 +22963,53 @@
         <v>0</v>
       </c>
       <c r="J99" s="1">
+        <v>0</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0</v>
+      </c>
+      <c r="L99" s="1">
+        <v>0</v>
+      </c>
+      <c r="M99" s="1">
         <v>4</v>
       </c>
-      <c r="K99" s="1">
+      <c r="N99" s="1">
+        <v>0</v>
+      </c>
+      <c r="O99" s="1">
+        <v>0</v>
+      </c>
+      <c r="P99" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="1">
         <v>4</v>
       </c>
-      <c r="L99" s="1">
+      <c r="R99" s="1">
+        <v>0</v>
+      </c>
+      <c r="S99" s="1">
+        <v>1</v>
+      </c>
+      <c r="T99" s="1">
+        <v>0</v>
+      </c>
+      <c r="U99" s="1">
+        <v>0</v>
+      </c>
+      <c r="V99" s="1">
+        <v>0</v>
+      </c>
+      <c r="W99" s="1">
+        <v>0</v>
+      </c>
+      <c r="X99" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y99" s="1">
         <v>2</v>
       </c>
-      <c r="M99" s="1">
-        <v>7</v>
-      </c>
-      <c r="N99" s="1">
-        <v>15</v>
-      </c>
-      <c r="O99" s="1">
-        <v>5</v>
-      </c>
-      <c r="P99" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q99" s="1">
-        <v>5</v>
-      </c>
-      <c r="R99" s="1">
-        <v>0</v>
-      </c>
-      <c r="S99" s="1">
-        <v>9</v>
-      </c>
-      <c r="T99" s="1">
-        <v>1</v>
-      </c>
-      <c r="U99" s="1">
-        <v>0</v>
-      </c>
-      <c r="V99" s="1">
-        <v>6</v>
-      </c>
-      <c r="W99" s="1">
-        <v>5</v>
-      </c>
-      <c r="X99" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y99" s="1">
-        <v>3</v>
-      </c>
       <c r="Z99" s="1">
         <v>0</v>
       </c>
@@ -23103,53 +23106,53 @@
       <c r="BE99" s="1">
         <v>0</v>
       </c>
-      <c r="BF99" s="3">
-        <v>6178</v>
-      </c>
-      <c r="BG99" s="3">
-        <v>5792</v>
-      </c>
-      <c r="BH99" s="3">
-        <v>3088</v>
+      <c r="BF99" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG99" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH99" s="1">
+        <v>0</v>
       </c>
       <c r="BI99" s="3">
-        <v>10424</v>
-      </c>
-      <c r="BJ99" s="3">
-        <v>22296</v>
-      </c>
-      <c r="BK99" s="3">
-        <v>7240</v>
-      </c>
-      <c r="BL99" s="3">
-        <v>8881</v>
+        <v>5660</v>
+      </c>
+      <c r="BJ99" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK99" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL99" s="1">
+        <v>0</v>
       </c>
       <c r="BM99" s="3">
-        <v>7336</v>
+        <v>5328</v>
       </c>
       <c r="BN99" s="1">
         <v>0</v>
       </c>
       <c r="BO99" s="3">
-        <v>13898</v>
-      </c>
-      <c r="BP99" s="3">
-        <v>1544</v>
+        <v>1332</v>
+      </c>
+      <c r="BP99" s="1">
+        <v>0</v>
       </c>
       <c r="BQ99" s="1">
         <v>0</v>
       </c>
-      <c r="BR99" s="3">
-        <v>8608</v>
-      </c>
-      <c r="BS99" s="3">
-        <v>7432</v>
+      <c r="BR99" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS99" s="1">
+        <v>0</v>
       </c>
       <c r="BT99" s="3">
-        <v>7240</v>
+        <v>1332</v>
       </c>
       <c r="BU99" s="3">
-        <v>4536</v>
+        <v>2498</v>
       </c>
       <c r="BV99" s="4"/>
     </row>
@@ -23182,52 +23185,52 @@
         <v>0</v>
       </c>
       <c r="J100" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K100" s="1">
+        <v>4</v>
+      </c>
+      <c r="L100" s="1">
+        <v>2</v>
+      </c>
+      <c r="M100" s="1">
+        <v>7</v>
+      </c>
+      <c r="N100" s="1">
+        <v>15</v>
+      </c>
+      <c r="O100" s="1">
+        <v>5</v>
+      </c>
+      <c r="P100" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>5</v>
+      </c>
+      <c r="R100" s="1">
+        <v>0</v>
+      </c>
+      <c r="S100" s="1">
+        <v>9</v>
+      </c>
+      <c r="T100" s="1">
         <v>1</v>
       </c>
-      <c r="L100" s="1">
-        <v>1</v>
-      </c>
-      <c r="M100" s="1">
-        <v>0</v>
-      </c>
-      <c r="N100" s="1">
-        <v>0</v>
-      </c>
-      <c r="O100" s="1">
-        <v>4</v>
-      </c>
-      <c r="P100" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="1">
-        <v>0</v>
-      </c>
-      <c r="R100" s="1">
-        <v>0</v>
-      </c>
-      <c r="S100" s="1">
-        <v>0</v>
-      </c>
-      <c r="T100" s="1">
-        <v>2</v>
-      </c>
       <c r="U100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V100" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W100" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X100" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y100" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z100" s="1">
         <v>0</v>
@@ -23325,53 +23328,53 @@
       <c r="BE100" s="1">
         <v>0</v>
       </c>
-      <c r="BF100" s="1">
-        <v>0</v>
+      <c r="BF100" s="3">
+        <v>6178</v>
       </c>
       <c r="BG100" s="3">
-        <v>1200</v>
+        <v>5792</v>
       </c>
       <c r="BH100" s="3">
-        <v>1125</v>
-      </c>
-      <c r="BI100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ100" s="1">
-        <v>0</v>
+        <v>3088</v>
+      </c>
+      <c r="BI100" s="3">
+        <v>10424</v>
+      </c>
+      <c r="BJ100" s="3">
+        <v>22296</v>
       </c>
       <c r="BK100" s="3">
-        <v>4575</v>
-      </c>
-      <c r="BL100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM100" s="1">
-        <v>0</v>
+        <v>7240</v>
+      </c>
+      <c r="BL100" s="3">
+        <v>8881</v>
+      </c>
+      <c r="BM100" s="3">
+        <v>7336</v>
       </c>
       <c r="BN100" s="1">
         <v>0</v>
       </c>
-      <c r="BO100" s="1">
-        <v>0</v>
+      <c r="BO100" s="3">
+        <v>13898</v>
       </c>
       <c r="BP100" s="3">
-        <v>2400</v>
-      </c>
-      <c r="BQ100" s="3">
-        <v>1125</v>
+        <v>1544</v>
+      </c>
+      <c r="BQ100" s="1">
+        <v>0</v>
       </c>
       <c r="BR100" s="3">
-        <v>2400</v>
+        <v>8608</v>
       </c>
       <c r="BS100" s="3">
-        <v>2250</v>
-      </c>
-      <c r="BT100" s="1">
-        <v>0</v>
+        <v>7432</v>
+      </c>
+      <c r="BT100" s="3">
+        <v>7240</v>
       </c>
       <c r="BU100" s="3">
-        <v>1200</v>
+        <v>4536</v>
       </c>
       <c r="BV100" s="4"/>
     </row>
@@ -23407,10 +23410,10 @@
         <v>0</v>
       </c>
       <c r="K101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101" s="1">
         <v>0</v>
@@ -23419,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P101" s="1">
         <v>0</v>
@@ -23434,13 +23437,13 @@
         <v>0</v>
       </c>
       <c r="T101" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V101" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W101" s="1">
         <v>2</v>
@@ -23550,11 +23553,11 @@
       <c r="BF101" s="1">
         <v>0</v>
       </c>
-      <c r="BG101" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH101" s="1">
-        <v>0</v>
+      <c r="BG101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="BH101" s="3">
+        <v>1125</v>
       </c>
       <c r="BI101" s="1">
         <v>0</v>
@@ -23562,8 +23565,8 @@
       <c r="BJ101" s="1">
         <v>0</v>
       </c>
-      <c r="BK101" s="1">
-        <v>0</v>
+      <c r="BK101" s="3">
+        <v>4575</v>
       </c>
       <c r="BL101" s="1">
         <v>0</v>
@@ -23577,23 +23580,23 @@
       <c r="BO101" s="1">
         <v>0</v>
       </c>
-      <c r="BP101" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ101" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR101" s="1">
-        <v>0</v>
+      <c r="BP101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="BQ101" s="3">
+        <v>1125</v>
+      </c>
+      <c r="BR101" s="3">
+        <v>2400</v>
       </c>
       <c r="BS101" s="3">
-        <v>2128</v>
+        <v>2250</v>
       </c>
       <c r="BT101" s="1">
         <v>0</v>
       </c>
-      <c r="BU101" s="1">
-        <v>998</v>
+      <c r="BU101" s="3">
+        <v>1200</v>
       </c>
       <c r="BV101" s="4"/>
     </row>
@@ -23635,44 +23638,44 @@
         <v>0</v>
       </c>
       <c r="M102" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N102" s="1">
+        <v>0</v>
+      </c>
+      <c r="O102" s="1">
+        <v>0</v>
+      </c>
+      <c r="P102" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>0</v>
+      </c>
+      <c r="R102" s="1">
+        <v>0</v>
+      </c>
+      <c r="S102" s="1">
+        <v>0</v>
+      </c>
+      <c r="T102" s="1">
+        <v>0</v>
+      </c>
+      <c r="U102" s="1">
+        <v>0</v>
+      </c>
+      <c r="V102" s="1">
+        <v>0</v>
+      </c>
+      <c r="W102" s="1">
         <v>2</v>
       </c>
-      <c r="O102" s="1">
-        <v>0</v>
-      </c>
-      <c r="P102" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="1">
-        <v>5</v>
-      </c>
-      <c r="R102" s="1">
+      <c r="X102" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="1">
         <v>1</v>
       </c>
-      <c r="S102" s="1">
-        <v>4</v>
-      </c>
-      <c r="T102" s="1">
-        <v>3</v>
-      </c>
-      <c r="U102" s="1">
-        <v>0</v>
-      </c>
-      <c r="V102" s="1">
-        <v>4</v>
-      </c>
-      <c r="W102" s="1">
-        <v>1</v>
-      </c>
-      <c r="X102" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="1">
-        <v>4</v>
-      </c>
       <c r="Z102" s="1">
         <v>0</v>
       </c>
@@ -23778,11 +23781,11 @@
       <c r="BH102" s="1">
         <v>0</v>
       </c>
-      <c r="BI102" s="3">
-        <v>4500</v>
-      </c>
-      <c r="BJ102" s="3">
-        <v>2250</v>
+      <c r="BI102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ102" s="1">
+        <v>0</v>
       </c>
       <c r="BK102" s="1">
         <v>0</v>
@@ -23790,32 +23793,32 @@
       <c r="BL102" s="1">
         <v>0</v>
       </c>
-      <c r="BM102" s="3">
-        <v>5700</v>
-      </c>
-      <c r="BN102" s="3">
-        <v>1125</v>
-      </c>
-      <c r="BO102" s="3">
-        <v>4713</v>
-      </c>
-      <c r="BP102" s="3">
-        <v>3668</v>
+      <c r="BM102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP102" s="1">
+        <v>0</v>
       </c>
       <c r="BQ102" s="1">
         <v>0</v>
       </c>
-      <c r="BR102" s="3">
-        <v>4784</v>
+      <c r="BR102" s="1">
+        <v>0</v>
       </c>
       <c r="BS102" s="3">
-        <v>1196</v>
-      </c>
-      <c r="BT102" s="3">
-        <v>5980</v>
-      </c>
-      <c r="BU102" s="3">
-        <v>4864</v>
+        <v>2128</v>
+      </c>
+      <c r="BT102" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU102" s="1">
+        <v>998</v>
       </c>
       <c r="BV102" s="4"/>
     </row>
@@ -23857,43 +23860,43 @@
         <v>0</v>
       </c>
       <c r="M103" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N103" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O103" s="1">
+        <v>0</v>
+      </c>
+      <c r="P103" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>5</v>
+      </c>
+      <c r="R103" s="1">
+        <v>1</v>
+      </c>
+      <c r="S103" s="1">
+        <v>4</v>
+      </c>
+      <c r="T103" s="1">
         <v>3</v>
       </c>
-      <c r="P103" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="1">
-        <v>0</v>
-      </c>
-      <c r="R103" s="1">
-        <v>0</v>
-      </c>
-      <c r="S103" s="1">
-        <v>0</v>
-      </c>
-      <c r="T103" s="1">
-        <v>0</v>
-      </c>
       <c r="U103" s="1">
         <v>0</v>
       </c>
       <c r="V103" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X103" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y103" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z103" s="1">
         <v>0</v>
@@ -24000,44 +24003,44 @@
       <c r="BH103" s="1">
         <v>0</v>
       </c>
-      <c r="BI103" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ103" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK103" s="3">
-        <v>5596.8</v>
+      <c r="BI103" s="3">
+        <v>4500</v>
+      </c>
+      <c r="BJ103" s="3">
+        <v>2250</v>
+      </c>
+      <c r="BK103" s="1">
+        <v>0</v>
       </c>
       <c r="BL103" s="1">
         <v>0</v>
       </c>
-      <c r="BM103" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN103" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO103" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP103" s="1">
-        <v>0</v>
+      <c r="BM103" s="3">
+        <v>5700</v>
+      </c>
+      <c r="BN103" s="3">
+        <v>1125</v>
+      </c>
+      <c r="BO103" s="3">
+        <v>4713</v>
+      </c>
+      <c r="BP103" s="3">
+        <v>3668</v>
       </c>
       <c r="BQ103" s="1">
         <v>0</v>
       </c>
-      <c r="BR103" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS103" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT103" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU103" s="1">
-        <v>0</v>
+      <c r="BR103" s="3">
+        <v>4784</v>
+      </c>
+      <c r="BS103" s="3">
+        <v>1196</v>
+      </c>
+      <c r="BT103" s="3">
+        <v>5980</v>
+      </c>
+      <c r="BU103" s="3">
+        <v>6140</v>
       </c>
       <c r="BV103" s="4"/>
     </row>
@@ -24076,7 +24079,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M104" s="1">
         <v>0</v>
@@ -24085,7 +24088,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P104" s="1">
         <v>0</v>
@@ -24219,8 +24222,8 @@
       <c r="BG104" s="1">
         <v>0</v>
       </c>
-      <c r="BH104" s="3">
-        <v>3790</v>
+      <c r="BH104" s="1">
+        <v>0</v>
       </c>
       <c r="BI104" s="1">
         <v>0</v>
@@ -24228,8 +24231,8 @@
       <c r="BJ104" s="1">
         <v>0</v>
       </c>
-      <c r="BK104" s="1">
-        <v>0</v>
+      <c r="BK104" s="3">
+        <v>5596.8</v>
       </c>
       <c r="BL104" s="1">
         <v>0</v>
@@ -24298,7 +24301,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M105" s="1">
         <v>0</v>
@@ -24442,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="BH105" s="3">
-        <v>1545.6</v>
+        <v>3790</v>
       </c>
       <c r="BI105" s="1">
         <v>0</v>
@@ -24520,7 +24523,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" s="1">
         <v>0</v>
@@ -24529,10 +24532,10 @@
         <v>0</v>
       </c>
       <c r="O106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106" s="1">
         <v>0</v>
@@ -24547,13 +24550,13 @@
         <v>0</v>
       </c>
       <c r="U106" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V106" s="1">
         <v>0</v>
       </c>
       <c r="W106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X106" s="1">
         <v>0</v>
@@ -24663,8 +24666,8 @@
       <c r="BG106" s="1">
         <v>0</v>
       </c>
-      <c r="BH106" s="1">
-        <v>0</v>
+      <c r="BH106" s="3">
+        <v>1545.6</v>
       </c>
       <c r="BI106" s="1">
         <v>0</v>
@@ -24673,10 +24676,10 @@
         <v>0</v>
       </c>
       <c r="BK106" s="1">
-        <v>836</v>
+        <v>0</v>
       </c>
       <c r="BL106" s="1">
-        <v>892</v>
+        <v>0</v>
       </c>
       <c r="BM106" s="1">
         <v>0</v>
@@ -24690,14 +24693,14 @@
       <c r="BP106" s="1">
         <v>0</v>
       </c>
-      <c r="BQ106" s="3">
-        <v>1784</v>
+      <c r="BQ106" s="1">
+        <v>0</v>
       </c>
       <c r="BR106" s="1">
         <v>0</v>
       </c>
       <c r="BS106" s="1">
-        <v>836</v>
+        <v>0</v>
       </c>
       <c r="BT106" s="1">
         <v>0</v>
@@ -24742,19 +24745,19 @@
         <v>0</v>
       </c>
       <c r="L107" s="1">
+        <v>0</v>
+      </c>
+      <c r="M107" s="1">
+        <v>0</v>
+      </c>
+      <c r="N107" s="1">
+        <v>0</v>
+      </c>
+      <c r="O107" s="1">
         <v>1</v>
       </c>
-      <c r="M107" s="1">
-        <v>4</v>
-      </c>
-      <c r="N107" s="1">
-        <v>5</v>
-      </c>
-      <c r="O107" s="1">
-        <v>3</v>
-      </c>
       <c r="P107" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q107" s="1">
         <v>0</v>
@@ -24769,19 +24772,19 @@
         <v>0</v>
       </c>
       <c r="U107" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V107" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X107" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y107" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z107" s="1">
         <v>0</v>
@@ -24885,20 +24888,20 @@
       <c r="BG107" s="1">
         <v>0</v>
       </c>
-      <c r="BH107" s="3">
-        <v>1245</v>
-      </c>
-      <c r="BI107" s="3">
-        <v>4396</v>
-      </c>
-      <c r="BJ107" s="3">
-        <v>5714</v>
-      </c>
-      <c r="BK107" s="3">
-        <v>2311</v>
-      </c>
-      <c r="BL107" s="3">
-        <v>4396</v>
+      <c r="BH107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK107" s="1">
+        <v>836</v>
+      </c>
+      <c r="BL107" s="1">
+        <v>892</v>
       </c>
       <c r="BM107" s="1">
         <v>0</v>
@@ -24912,20 +24915,20 @@
       <c r="BP107" s="1">
         <v>0</v>
       </c>
-      <c r="BQ107" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR107" s="3">
-        <v>2198</v>
+      <c r="BQ107" s="3">
+        <v>1784</v>
+      </c>
+      <c r="BR107" s="1">
+        <v>0</v>
       </c>
       <c r="BS107" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT107" s="3">
-        <v>3370</v>
-      </c>
-      <c r="BU107" s="3">
-        <v>3370</v>
+        <v>836</v>
+      </c>
+      <c r="BT107" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU107" s="1">
+        <v>0</v>
       </c>
       <c r="BV107" s="4"/>
     </row>
@@ -24958,52 +24961,52 @@
         <v>0</v>
       </c>
       <c r="J108" s="1">
+        <v>0</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0</v>
+      </c>
+      <c r="L108" s="1">
         <v>1</v>
       </c>
-      <c r="K108" s="1">
-        <v>0</v>
-      </c>
-      <c r="L108" s="1">
+      <c r="M108" s="1">
+        <v>4</v>
+      </c>
+      <c r="N108" s="1">
+        <v>5</v>
+      </c>
+      <c r="O108" s="1">
         <v>3</v>
       </c>
-      <c r="M108" s="1">
-        <v>0</v>
-      </c>
-      <c r="N108" s="1">
-        <v>0</v>
-      </c>
-      <c r="O108" s="1">
-        <v>1</v>
-      </c>
       <c r="P108" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q108" s="1">
+        <v>0</v>
+      </c>
+      <c r="R108" s="1">
+        <v>0</v>
+      </c>
+      <c r="S108" s="1">
+        <v>0</v>
+      </c>
+      <c r="T108" s="1">
+        <v>0</v>
+      </c>
+      <c r="U108" s="1">
+        <v>0</v>
+      </c>
+      <c r="V108" s="1">
         <v>2</v>
       </c>
-      <c r="R108" s="1">
-        <v>0</v>
-      </c>
-      <c r="S108" s="1">
-        <v>0</v>
-      </c>
-      <c r="T108" s="1">
-        <v>0</v>
-      </c>
-      <c r="U108" s="1">
-        <v>0</v>
-      </c>
-      <c r="V108" s="1">
-        <v>0</v>
-      </c>
       <c r="W108" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X108" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y108" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z108" s="1">
         <v>0</v>
@@ -25102,28 +25105,28 @@
         <v>0</v>
       </c>
       <c r="BF108" s="1">
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="BG108" s="1">
         <v>0</v>
       </c>
       <c r="BH108" s="3">
-        <v>1473</v>
-      </c>
-      <c r="BI108" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ108" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK108" s="1">
-        <v>491</v>
-      </c>
-      <c r="BL108" s="1">
-        <v>0</v>
+        <v>1245</v>
+      </c>
+      <c r="BI108" s="3">
+        <v>4396</v>
+      </c>
+      <c r="BJ108" s="3">
+        <v>5714</v>
+      </c>
+      <c r="BK108" s="3">
+        <v>2311</v>
+      </c>
+      <c r="BL108" s="3">
+        <v>4396</v>
       </c>
       <c r="BM108" s="1">
-        <v>940</v>
+        <v>0</v>
       </c>
       <c r="BN108" s="1">
         <v>0</v>
@@ -25137,17 +25140,17 @@
       <c r="BQ108" s="1">
         <v>0</v>
       </c>
-      <c r="BR108" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS108" s="3">
-        <v>2946</v>
+      <c r="BR108" s="3">
+        <v>2198</v>
+      </c>
+      <c r="BS108" s="1">
+        <v>0</v>
       </c>
       <c r="BT108" s="3">
-        <v>2925</v>
-      </c>
-      <c r="BU108" s="1">
-        <v>982</v>
+        <v>3370</v>
+      </c>
+      <c r="BU108" s="3">
+        <v>4469</v>
       </c>
       <c r="BV108" s="4"/>
     </row>
@@ -25180,53 +25183,53 @@
         <v>0</v>
       </c>
       <c r="J109" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K109" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L109" s="1">
+        <v>3</v>
+      </c>
+      <c r="M109" s="1">
+        <v>0</v>
+      </c>
+      <c r="N109" s="1">
+        <v>0</v>
+      </c>
+      <c r="O109" s="1">
         <v>1</v>
       </c>
-      <c r="M109" s="1">
-        <v>9</v>
-      </c>
-      <c r="N109" s="1">
-        <v>14</v>
-      </c>
-      <c r="O109" s="1">
-        <v>11</v>
-      </c>
       <c r="P109" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q109" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R109" s="1">
+        <v>0</v>
+      </c>
+      <c r="S109" s="1">
+        <v>0</v>
+      </c>
+      <c r="T109" s="1">
+        <v>0</v>
+      </c>
+      <c r="U109" s="1">
+        <v>0</v>
+      </c>
+      <c r="V109" s="1">
+        <v>0</v>
+      </c>
+      <c r="W109" s="1">
+        <v>6</v>
+      </c>
+      <c r="X109" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y109" s="1">
         <v>2</v>
       </c>
-      <c r="S109" s="1">
-        <v>10</v>
-      </c>
-      <c r="T109" s="1">
-        <v>5</v>
-      </c>
-      <c r="U109" s="1">
-        <v>0</v>
-      </c>
-      <c r="V109" s="1">
-        <v>6</v>
-      </c>
-      <c r="W109" s="1">
-        <v>8</v>
-      </c>
-      <c r="X109" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y109" s="1">
-        <v>1</v>
-      </c>
       <c r="Z109" s="1">
         <v>0</v>
       </c>
@@ -25323,53 +25326,53 @@
       <c r="BE109" s="1">
         <v>0</v>
       </c>
-      <c r="BF109" s="3">
-        <v>8400</v>
-      </c>
-      <c r="BG109" s="3">
-        <v>9000</v>
-      </c>
-      <c r="BH109" s="1">
-        <v>600</v>
-      </c>
-      <c r="BI109" s="3">
-        <v>5400</v>
-      </c>
-      <c r="BJ109" s="3">
-        <v>7770</v>
-      </c>
-      <c r="BK109" s="3">
-        <v>6460</v>
-      </c>
-      <c r="BL109" s="3">
-        <v>5220</v>
-      </c>
-      <c r="BM109" s="3">
-        <v>5800</v>
-      </c>
-      <c r="BN109" s="3">
-        <v>1160</v>
-      </c>
-      <c r="BO109" s="3">
-        <v>5800</v>
-      </c>
-      <c r="BP109" s="3">
-        <v>2980</v>
+      <c r="BF109" s="1">
+        <v>491</v>
+      </c>
+      <c r="BG109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH109" s="3">
+        <v>1473</v>
+      </c>
+      <c r="BI109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK109" s="1">
+        <v>491</v>
+      </c>
+      <c r="BL109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM109" s="1">
+        <v>940</v>
+      </c>
+      <c r="BN109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO109" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP109" s="1">
+        <v>0</v>
       </c>
       <c r="BQ109" s="1">
         <v>0</v>
       </c>
-      <c r="BR109" s="3">
-        <v>3587</v>
+      <c r="BR109" s="1">
+        <v>0</v>
       </c>
       <c r="BS109" s="3">
-        <v>4760</v>
+        <v>2946</v>
       </c>
       <c r="BT109" s="3">
-        <v>1760</v>
+        <v>2925</v>
       </c>
       <c r="BU109" s="1">
-        <v>600</v>
+        <v>982</v>
       </c>
       <c r="BV109" s="4"/>
     </row>
@@ -25402,53 +25405,53 @@
         <v>0</v>
       </c>
       <c r="J110" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K110" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L110" s="1">
         <v>1</v>
       </c>
       <c r="M110" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N110" s="1">
+        <v>14</v>
+      </c>
+      <c r="O110" s="1">
+        <v>11</v>
+      </c>
+      <c r="P110" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q110" s="1">
+        <v>10</v>
+      </c>
+      <c r="R110" s="1">
         <v>2</v>
       </c>
-      <c r="O110" s="1">
-        <v>0</v>
-      </c>
-      <c r="P110" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="1">
-        <v>0</v>
-      </c>
-      <c r="R110" s="1">
-        <v>0</v>
-      </c>
       <c r="S110" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T110" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U110" s="1">
         <v>0</v>
       </c>
       <c r="V110" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W110" s="1">
+        <v>8</v>
+      </c>
+      <c r="X110" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y110" s="1">
         <v>1</v>
       </c>
-      <c r="X110" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y110" s="1">
-        <v>0</v>
-      </c>
       <c r="Z110" s="1">
         <v>0</v>
       </c>
@@ -25545,53 +25548,53 @@
       <c r="BE110" s="1">
         <v>0</v>
       </c>
-      <c r="BF110" s="1">
-        <v>0</v>
+      <c r="BF110" s="3">
+        <v>8400</v>
       </c>
       <c r="BG110" s="3">
-        <v>1080</v>
+        <v>9000</v>
       </c>
       <c r="BH110" s="1">
-        <v>540</v>
-      </c>
-      <c r="BI110" s="1">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="BI110" s="3">
+        <v>5400</v>
       </c>
       <c r="BJ110" s="3">
-        <v>1080</v>
-      </c>
-      <c r="BK110" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL110" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM110" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN110" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO110" s="1">
-        <v>0</v>
+        <v>7770</v>
+      </c>
+      <c r="BK110" s="3">
+        <v>6460</v>
+      </c>
+      <c r="BL110" s="3">
+        <v>5220</v>
+      </c>
+      <c r="BM110" s="3">
+        <v>5800</v>
+      </c>
+      <c r="BN110" s="3">
+        <v>1160</v>
+      </c>
+      <c r="BO110" s="3">
+        <v>5800</v>
       </c>
       <c r="BP110" s="3">
-        <v>1055</v>
+        <v>2980</v>
       </c>
       <c r="BQ110" s="1">
         <v>0</v>
       </c>
       <c r="BR110" s="3">
-        <v>2060</v>
-      </c>
-      <c r="BS110" s="1">
-        <v>540</v>
-      </c>
-      <c r="BT110" s="1">
-        <v>0</v>
+        <v>3587</v>
+      </c>
+      <c r="BS110" s="3">
+        <v>4760</v>
+      </c>
+      <c r="BT110" s="3">
+        <v>1760</v>
       </c>
       <c r="BU110" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="BV110" s="4"/>
     </row>
@@ -25624,34 +25627,34 @@
         <v>0</v>
       </c>
       <c r="J111" s="1">
+        <v>0</v>
+      </c>
+      <c r="K111" s="1">
         <v>2</v>
       </c>
-      <c r="K111" s="1">
-        <v>3</v>
-      </c>
       <c r="L111" s="1">
+        <v>1</v>
+      </c>
+      <c r="M111" s="1">
+        <v>0</v>
+      </c>
+      <c r="N111" s="1">
         <v>2</v>
       </c>
-      <c r="M111" s="1">
-        <v>6</v>
-      </c>
-      <c r="N111" s="1">
-        <v>1</v>
-      </c>
       <c r="O111" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R111" s="1">
         <v>0</v>
       </c>
       <c r="S111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T111" s="1">
         <v>2</v>
@@ -25660,16 +25663,16 @@
         <v>0</v>
       </c>
       <c r="V111" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="W111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X111" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y111" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z111" s="1">
         <v>0</v>
@@ -25767,53 +25770,53 @@
       <c r="BE111" s="1">
         <v>0</v>
       </c>
-      <c r="BF111" s="3">
-        <v>1296</v>
+      <c r="BF111" s="1">
+        <v>0</v>
       </c>
       <c r="BG111" s="3">
-        <v>1944</v>
-      </c>
-      <c r="BH111" s="3">
-        <v>1296</v>
-      </c>
-      <c r="BI111" s="3">
-        <v>3774</v>
-      </c>
-      <c r="BJ111" s="1">
-        <v>648</v>
-      </c>
-      <c r="BK111" s="3">
-        <v>5535</v>
+        <v>1080</v>
+      </c>
+      <c r="BH111" s="1">
+        <v>540</v>
+      </c>
+      <c r="BI111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ111" s="3">
+        <v>1080</v>
+      </c>
+      <c r="BK111" s="1">
+        <v>0</v>
       </c>
       <c r="BL111" s="1">
-        <v>615</v>
+        <v>0</v>
       </c>
       <c r="BM111" s="1">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="BN111" s="1">
         <v>0</v>
       </c>
       <c r="BO111" s="1">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="BP111" s="3">
-        <v>1296</v>
+        <v>1055</v>
       </c>
       <c r="BQ111" s="1">
         <v>0</v>
       </c>
       <c r="BR111" s="3">
-        <v>5535</v>
+        <v>2060</v>
       </c>
       <c r="BS111" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT111" s="3">
-        <v>1263</v>
-      </c>
-      <c r="BU111" s="3">
-        <v>1296</v>
+        <v>540</v>
+      </c>
+      <c r="BT111" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU111" s="1">
+        <v>0</v>
       </c>
       <c r="BV111" s="4"/>
     </row>
@@ -25846,52 +25849,52 @@
         <v>0</v>
       </c>
       <c r="J112" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K112" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L112" s="1">
+        <v>2</v>
+      </c>
+      <c r="M112" s="1">
+        <v>6</v>
+      </c>
+      <c r="N112" s="1">
         <v>1</v>
       </c>
-      <c r="M112" s="1">
-        <v>1</v>
-      </c>
-      <c r="N112" s="1">
-        <v>2</v>
-      </c>
       <c r="O112" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P112" s="1">
         <v>1</v>
       </c>
       <c r="Q112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R112" s="1">
         <v>0</v>
       </c>
       <c r="S112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T112" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U112" s="1">
         <v>0</v>
       </c>
       <c r="V112" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W112" s="1">
         <v>0</v>
       </c>
       <c r="X112" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y112" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z112" s="1">
         <v>0</v>
@@ -25989,53 +25992,53 @@
       <c r="BE112" s="1">
         <v>0</v>
       </c>
-      <c r="BF112" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG112" s="1">
-        <v>0</v>
+      <c r="BF112" s="3">
+        <v>1296</v>
+      </c>
+      <c r="BG112" s="3">
+        <v>1944</v>
       </c>
       <c r="BH112" s="3">
-        <v>1125</v>
+        <v>1296</v>
       </c>
       <c r="BI112" s="3">
-        <v>1125</v>
-      </c>
-      <c r="BJ112" s="3">
-        <v>2400</v>
-      </c>
-      <c r="BK112" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL112" s="3">
-        <v>1125</v>
+        <v>3774</v>
+      </c>
+      <c r="BJ112" s="1">
+        <v>648</v>
+      </c>
+      <c r="BK112" s="3">
+        <v>5535</v>
+      </c>
+      <c r="BL112" s="1">
+        <v>615</v>
       </c>
       <c r="BM112" s="1">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="BN112" s="1">
         <v>0</v>
       </c>
       <c r="BO112" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP112" s="1">
-        <v>0</v>
+        <v>648</v>
+      </c>
+      <c r="BP112" s="3">
+        <v>1296</v>
       </c>
       <c r="BQ112" s="1">
         <v>0</v>
       </c>
-      <c r="BR112" s="1">
-        <v>0</v>
+      <c r="BR112" s="3">
+        <v>5535</v>
       </c>
       <c r="BS112" s="1">
         <v>0</v>
       </c>
-      <c r="BT112" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU112" s="1">
-        <v>0</v>
+      <c r="BT112" s="3">
+        <v>1263</v>
+      </c>
+      <c r="BU112" s="3">
+        <v>1296</v>
       </c>
       <c r="BV112" s="4"/>
     </row>
@@ -26074,22 +26077,22 @@
         <v>0</v>
       </c>
       <c r="L113" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N113" s="1">
+        <v>2</v>
+      </c>
+      <c r="O113" s="1">
+        <v>0</v>
+      </c>
+      <c r="P113" s="1">
         <v>1</v>
       </c>
-      <c r="O113" s="1">
-        <v>1</v>
-      </c>
-      <c r="P113" s="1">
-        <v>2</v>
-      </c>
       <c r="Q113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R113" s="1">
         <v>0</v>
@@ -26104,13 +26107,13 @@
         <v>0</v>
       </c>
       <c r="V113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W113" s="1">
         <v>0</v>
       </c>
       <c r="X113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y113" s="1">
         <v>0</v>
@@ -26218,19 +26221,19 @@
         <v>0</v>
       </c>
       <c r="BH113" s="3">
-        <v>2728</v>
-      </c>
-      <c r="BI113" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ113" s="1">
-        <v>890</v>
+        <v>1125</v>
+      </c>
+      <c r="BI113" s="3">
+        <v>1125</v>
+      </c>
+      <c r="BJ113" s="3">
+        <v>2400</v>
       </c>
       <c r="BK113" s="1">
-        <v>890</v>
+        <v>0</v>
       </c>
       <c r="BL113" s="3">
-        <v>1780</v>
+        <v>1125</v>
       </c>
       <c r="BM113" s="1">
         <v>0</v>
@@ -26248,13 +26251,13 @@
         <v>0</v>
       </c>
       <c r="BR113" s="1">
-        <v>890</v>
+        <v>0</v>
       </c>
       <c r="BS113" s="1">
         <v>0</v>
       </c>
       <c r="BT113" s="1">
-        <v>890</v>
+        <v>0</v>
       </c>
       <c r="BU113" s="1">
         <v>0</v>
@@ -26296,43 +26299,43 @@
         <v>0</v>
       </c>
       <c r="L114" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M114" s="1">
         <v>0</v>
       </c>
       <c r="N114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P114" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R114" s="1">
+        <v>0</v>
+      </c>
+      <c r="S114" s="1">
+        <v>0</v>
+      </c>
+      <c r="T114" s="1">
+        <v>0</v>
+      </c>
+      <c r="U114" s="1">
+        <v>0</v>
+      </c>
+      <c r="V114" s="1">
         <v>1</v>
       </c>
-      <c r="S114" s="1">
-        <v>0</v>
-      </c>
-      <c r="T114" s="1">
-        <v>0</v>
-      </c>
-      <c r="U114" s="1">
-        <v>0</v>
-      </c>
-      <c r="V114" s="1">
-        <v>0</v>
-      </c>
       <c r="W114" s="1">
         <v>0</v>
       </c>
       <c r="X114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y114" s="1">
         <v>0</v>
@@ -26439,26 +26442,26 @@
       <c r="BG114" s="1">
         <v>0</v>
       </c>
-      <c r="BH114" s="1">
-        <v>0</v>
+      <c r="BH114" s="3">
+        <v>2728</v>
       </c>
       <c r="BI114" s="1">
         <v>0</v>
       </c>
       <c r="BJ114" s="1">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="BK114" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL114" s="1">
-        <v>0</v>
+        <v>890</v>
+      </c>
+      <c r="BL114" s="3">
+        <v>1780</v>
       </c>
       <c r="BM114" s="1">
         <v>0</v>
       </c>
       <c r="BN114" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="BO114" s="1">
         <v>0</v>
@@ -26470,13 +26473,13 @@
         <v>0</v>
       </c>
       <c r="BR114" s="1">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="BS114" s="1">
         <v>0</v>
       </c>
       <c r="BT114" s="1">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="BU114" s="1">
         <v>0</v>
@@ -26536,7 +26539,7 @@
         <v>0</v>
       </c>
       <c r="R115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S115" s="1">
         <v>0</v>
@@ -26557,7 +26560,7 @@
         <v>0</v>
       </c>
       <c r="Y115" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z115" s="1">
         <v>0</v>
@@ -26680,7 +26683,7 @@
         <v>0</v>
       </c>
       <c r="BN115" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="BO115" s="1">
         <v>0</v>
@@ -26700,8 +26703,8 @@
       <c r="BT115" s="1">
         <v>0</v>
       </c>
-      <c r="BU115" s="3">
-        <v>1295</v>
+      <c r="BU115" s="1">
+        <v>0</v>
       </c>
       <c r="BV115" s="4"/>
     </row>
@@ -26770,17 +26773,17 @@
         <v>0</v>
       </c>
       <c r="V116" s="1">
+        <v>0</v>
+      </c>
+      <c r="W116" s="1">
+        <v>0</v>
+      </c>
+      <c r="X116" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y116" s="1">
         <v>1</v>
       </c>
-      <c r="W116" s="1">
-        <v>2</v>
-      </c>
-      <c r="X116" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y116" s="1">
-        <v>0</v>
-      </c>
       <c r="Z116" s="1">
         <v>0</v>
       </c>
@@ -26913,17 +26916,17 @@
       <c r="BQ116" s="1">
         <v>0</v>
       </c>
-      <c r="BR116" s="3">
-        <v>1495</v>
-      </c>
-      <c r="BS116" s="3">
-        <v>2990</v>
+      <c r="BR116" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS116" s="1">
+        <v>0</v>
       </c>
       <c r="BT116" s="1">
         <v>0</v>
       </c>
-      <c r="BU116" s="1">
-        <v>0</v>
+      <c r="BU116" s="3">
+        <v>1295</v>
       </c>
       <c r="BV116" s="4"/>
     </row>
@@ -26974,31 +26977,31 @@
         <v>0</v>
       </c>
       <c r="P117" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q117" s="1">
         <v>0</v>
       </c>
       <c r="R117" s="1">
+        <v>0</v>
+      </c>
+      <c r="S117" s="1">
+        <v>0</v>
+      </c>
+      <c r="T117" s="1">
+        <v>0</v>
+      </c>
+      <c r="U117" s="1">
+        <v>0</v>
+      </c>
+      <c r="V117" s="1">
         <v>1</v>
-      </c>
-      <c r="S117" s="1">
-        <v>4</v>
-      </c>
-      <c r="T117" s="1">
-        <v>2</v>
-      </c>
-      <c r="U117" s="1">
-        <v>1</v>
-      </c>
-      <c r="V117" s="1">
-        <v>2</v>
       </c>
       <c r="W117" s="1">
         <v>2</v>
       </c>
       <c r="X117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y117" s="1">
         <v>0</v>
@@ -27117,32 +27120,32 @@
       <c r="BK117" s="1">
         <v>0</v>
       </c>
-      <c r="BL117" s="3">
-        <v>2092</v>
+      <c r="BL117" s="1">
+        <v>0</v>
       </c>
       <c r="BM117" s="1">
         <v>0</v>
       </c>
-      <c r="BN117" s="3">
-        <v>1099</v>
-      </c>
-      <c r="BO117" s="3">
-        <v>4430</v>
-      </c>
-      <c r="BP117" s="3">
-        <v>2232</v>
-      </c>
-      <c r="BQ117" s="3">
-        <v>1099</v>
+      <c r="BN117" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO117" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP117" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ117" s="1">
+        <v>0</v>
       </c>
       <c r="BR117" s="3">
-        <v>2198</v>
+        <v>1495</v>
       </c>
       <c r="BS117" s="3">
-        <v>2198</v>
-      </c>
-      <c r="BT117" s="3">
-        <v>1099</v>
+        <v>2990</v>
+      </c>
+      <c r="BT117" s="1">
+        <v>0</v>
       </c>
       <c r="BU117" s="1">
         <v>0</v>
@@ -27190,37 +27193,37 @@
         <v>0</v>
       </c>
       <c r="N118" s="1">
+        <v>0</v>
+      </c>
+      <c r="O118" s="1">
+        <v>0</v>
+      </c>
+      <c r="P118" s="1">
         <v>2</v>
       </c>
-      <c r="O118" s="1">
-        <v>0</v>
-      </c>
-      <c r="P118" s="1">
+      <c r="Q118" s="1">
+        <v>0</v>
+      </c>
+      <c r="R118" s="1">
         <v>1</v>
       </c>
-      <c r="Q118" s="1">
-        <v>0</v>
-      </c>
-      <c r="R118" s="1">
-        <v>0</v>
-      </c>
       <c r="S118" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T118" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V118" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W118" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y118" s="1">
         <v>0</v>
@@ -27333,38 +27336,38 @@
       <c r="BI118" s="1">
         <v>0</v>
       </c>
-      <c r="BJ118" s="3">
+      <c r="BJ118" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK118" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL118" s="3">
         <v>2092</v>
       </c>
-      <c r="BK118" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL118" s="3">
-        <v>1046</v>
-      </c>
       <c r="BM118" s="1">
         <v>0</v>
       </c>
-      <c r="BN118" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO118" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP118" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ118" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR118" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS118" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT118" s="1">
-        <v>0</v>
+      <c r="BN118" s="3">
+        <v>1099</v>
+      </c>
+      <c r="BO118" s="3">
+        <v>4430</v>
+      </c>
+      <c r="BP118" s="3">
+        <v>2232</v>
+      </c>
+      <c r="BQ118" s="3">
+        <v>1099</v>
+      </c>
+      <c r="BR118" s="3">
+        <v>2198</v>
+      </c>
+      <c r="BS118" s="3">
+        <v>2198</v>
+      </c>
+      <c r="BT118" s="3">
+        <v>1099</v>
       </c>
       <c r="BU118" s="1">
         <v>0</v>
@@ -27412,13 +27415,13 @@
         <v>0</v>
       </c>
       <c r="N119" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O119" s="1">
         <v>0</v>
       </c>
       <c r="P119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q119" s="1">
         <v>0</v>
@@ -27439,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="W119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X119" s="1">
         <v>0</v>
@@ -27555,14 +27558,14 @@
       <c r="BI119" s="1">
         <v>0</v>
       </c>
-      <c r="BJ119" s="1">
-        <v>0</v>
+      <c r="BJ119" s="3">
+        <v>2092</v>
       </c>
       <c r="BK119" s="1">
         <v>0</v>
       </c>
-      <c r="BL119" s="1">
-        <v>0</v>
+      <c r="BL119" s="3">
+        <v>1046</v>
       </c>
       <c r="BM119" s="1">
         <v>0</v>
@@ -27582,8 +27585,8 @@
       <c r="BR119" s="1">
         <v>0</v>
       </c>
-      <c r="BS119" s="3">
-        <v>1295</v>
+      <c r="BS119" s="1">
+        <v>0</v>
       </c>
       <c r="BT119" s="1">
         <v>0</v>
@@ -27661,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="W120" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X120" s="1">
         <v>0</v>
       </c>
       <c r="Y120" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z120" s="1">
         <v>0</v>
@@ -27805,13 +27808,13 @@
         <v>0</v>
       </c>
       <c r="BS120" s="3">
-        <v>4485</v>
+        <v>1295</v>
       </c>
       <c r="BT120" s="1">
         <v>0</v>
       </c>
-      <c r="BU120" s="3">
-        <v>2990</v>
+      <c r="BU120" s="1">
+        <v>0</v>
       </c>
       <c r="BV120" s="4"/>
     </row>
@@ -27883,7 +27886,7 @@
         <v>0</v>
       </c>
       <c r="W121" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X121" s="1">
         <v>0</v>
@@ -28026,14 +28029,14 @@
       <c r="BR121" s="1">
         <v>0</v>
       </c>
-      <c r="BS121" s="1">
-        <v>0</v>
+      <c r="BS121" s="3">
+        <v>4485</v>
       </c>
       <c r="BT121" s="1">
         <v>0</v>
       </c>
       <c r="BU121" s="3">
-        <v>2250</v>
+        <v>2990</v>
       </c>
       <c r="BV121" s="4"/>
     </row>
@@ -28069,10 +28072,10 @@
         <v>0</v>
       </c>
       <c r="K122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M122" s="1">
         <v>0</v>
@@ -28081,10 +28084,10 @@
         <v>0</v>
       </c>
       <c r="O122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P122" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q122" s="1">
         <v>0</v>
@@ -28096,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="T122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U122" s="1">
         <v>0</v>
@@ -28111,7 +28114,7 @@
         <v>0</v>
       </c>
       <c r="Y122" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z122" s="1">
         <v>0</v>
@@ -28213,10 +28216,10 @@
         <v>0</v>
       </c>
       <c r="BG122" s="1">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="BH122" s="1">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="BI122" s="1">
         <v>0</v>
@@ -28225,10 +28228,10 @@
         <v>0</v>
       </c>
       <c r="BK122" s="1">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="BL122" s="1">
-        <v>-698</v>
+        <v>0</v>
       </c>
       <c r="BM122" s="1">
         <v>0</v>
@@ -28240,7 +28243,7 @@
         <v>0</v>
       </c>
       <c r="BP122" s="1">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="BQ122" s="1">
         <v>0</v>
@@ -28254,8 +28257,8 @@
       <c r="BT122" s="1">
         <v>0</v>
       </c>
-      <c r="BU122" s="1">
-        <v>0</v>
+      <c r="BU122" s="3">
+        <v>2250</v>
       </c>
       <c r="BV122" s="4"/>
     </row>
@@ -28291,7 +28294,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L123" s="1">
         <v>1</v>
@@ -28303,37 +28306,37 @@
         <v>0</v>
       </c>
       <c r="O123" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P123" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q123" s="1">
+        <v>0</v>
+      </c>
+      <c r="R123" s="1">
+        <v>0</v>
+      </c>
+      <c r="S123" s="1">
+        <v>0</v>
+      </c>
+      <c r="T123" s="1">
         <v>1</v>
       </c>
-      <c r="Q123" s="1">
-        <v>0</v>
-      </c>
-      <c r="R123" s="1">
-        <v>2</v>
-      </c>
-      <c r="S123" s="1">
-        <v>3</v>
-      </c>
-      <c r="T123" s="1">
-        <v>4</v>
-      </c>
       <c r="U123" s="1">
         <v>0</v>
       </c>
       <c r="V123" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W123" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X123" s="1">
         <v>0</v>
       </c>
       <c r="Y123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z123" s="1">
         <v>0</v>
@@ -28435,10 +28438,10 @@
         <v>0</v>
       </c>
       <c r="BG123" s="1">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="BH123" s="1">
-        <v>900</v>
+        <v>698</v>
       </c>
       <c r="BI123" s="1">
         <v>0</v>
@@ -28446,38 +28449,38 @@
       <c r="BJ123" s="1">
         <v>0</v>
       </c>
-      <c r="BK123" s="3">
-        <v>3600</v>
+      <c r="BK123" s="1">
+        <v>698</v>
       </c>
       <c r="BL123" s="1">
-        <v>875</v>
+        <v>-698</v>
       </c>
       <c r="BM123" s="1">
         <v>0</v>
       </c>
-      <c r="BN123" s="3">
-        <v>1750</v>
-      </c>
-      <c r="BO123" s="3">
-        <v>2625</v>
-      </c>
-      <c r="BP123" s="3">
-        <v>3560</v>
+      <c r="BN123" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO123" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP123" s="1">
+        <v>675</v>
       </c>
       <c r="BQ123" s="1">
         <v>0</v>
       </c>
-      <c r="BR123" s="3">
-        <v>1750</v>
-      </c>
-      <c r="BS123" s="3">
-        <v>1780</v>
+      <c r="BR123" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS123" s="1">
+        <v>0</v>
       </c>
       <c r="BT123" s="1">
         <v>0</v>
       </c>
       <c r="BU123" s="1">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="BV123" s="4"/>
     </row>
@@ -28516,7 +28519,7 @@
         <v>0</v>
       </c>
       <c r="L124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M124" s="1">
         <v>0</v>
@@ -28525,37 +28528,37 @@
         <v>0</v>
       </c>
       <c r="O124" s="1">
+        <v>4</v>
+      </c>
+      <c r="P124" s="1">
         <v>1</v>
       </c>
-      <c r="P124" s="1">
-        <v>0</v>
-      </c>
       <c r="Q124" s="1">
+        <v>0</v>
+      </c>
+      <c r="R124" s="1">
+        <v>2</v>
+      </c>
+      <c r="S124" s="1">
         <v>3</v>
       </c>
-      <c r="R124" s="1">
-        <v>0</v>
-      </c>
-      <c r="S124" s="1">
-        <v>0</v>
-      </c>
       <c r="T124" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U124" s="1">
         <v>0</v>
       </c>
       <c r="V124" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W124" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X124" s="1">
         <v>0</v>
       </c>
       <c r="Y124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z124" s="1">
         <v>0</v>
@@ -28660,7 +28663,7 @@
         <v>0</v>
       </c>
       <c r="BH124" s="1">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="BI124" s="1">
         <v>0</v>
@@ -28668,38 +28671,38 @@
       <c r="BJ124" s="1">
         <v>0</v>
       </c>
-      <c r="BK124" s="1">
-        <v>984</v>
+      <c r="BK124" s="3">
+        <v>3600</v>
       </c>
       <c r="BL124" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM124" s="3">
-        <v>2769</v>
-      </c>
-      <c r="BN124" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO124" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP124" s="1">
-        <v>0</v>
+        <v>875</v>
+      </c>
+      <c r="BM124" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN124" s="3">
+        <v>1750</v>
+      </c>
+      <c r="BO124" s="3">
+        <v>2625</v>
+      </c>
+      <c r="BP124" s="3">
+        <v>3560</v>
       </c>
       <c r="BQ124" s="1">
         <v>0</v>
       </c>
-      <c r="BR124" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS124" s="1">
-        <v>0</v>
+      <c r="BR124" s="3">
+        <v>1750</v>
+      </c>
+      <c r="BS124" s="3">
+        <v>1780</v>
       </c>
       <c r="BT124" s="1">
         <v>0</v>
       </c>
       <c r="BU124" s="1">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="BV124" s="4"/>
     </row>
@@ -28735,7 +28738,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L125" s="1">
         <v>0</v>
@@ -28747,13 +28750,13 @@
         <v>0</v>
       </c>
       <c r="O125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R125" s="1">
         <v>0</v>
@@ -28774,7 +28777,7 @@
         <v>0</v>
       </c>
       <c r="X125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y125" s="1">
         <v>0</v>
@@ -28878,8 +28881,8 @@
       <c r="BF125" s="1">
         <v>0</v>
       </c>
-      <c r="BG125" s="3">
-        <v>2250</v>
+      <c r="BG125" s="1">
+        <v>0</v>
       </c>
       <c r="BH125" s="1">
         <v>0</v>
@@ -28891,13 +28894,13 @@
         <v>0</v>
       </c>
       <c r="BK125" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL125" s="3">
-        <v>1200</v>
-      </c>
-      <c r="BM125" s="1">
-        <v>0</v>
+        <v>984</v>
+      </c>
+      <c r="BL125" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM125" s="3">
+        <v>2769</v>
       </c>
       <c r="BN125" s="1">
         <v>0</v>
@@ -28917,8 +28920,8 @@
       <c r="BS125" s="1">
         <v>0</v>
       </c>
-      <c r="BT125" s="3">
-        <v>1125</v>
+      <c r="BT125" s="1">
+        <v>0</v>
       </c>
       <c r="BU125" s="1">
         <v>0</v>
@@ -28957,7 +28960,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L126" s="1">
         <v>0</v>
@@ -28972,7 +28975,7 @@
         <v>0</v>
       </c>
       <c r="P126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q126" s="1">
         <v>0</v>
@@ -28981,23 +28984,23 @@
         <v>0</v>
       </c>
       <c r="S126" s="1">
+        <v>0</v>
+      </c>
+      <c r="T126" s="1">
+        <v>0</v>
+      </c>
+      <c r="U126" s="1">
+        <v>0</v>
+      </c>
+      <c r="V126" s="1">
+        <v>0</v>
+      </c>
+      <c r="W126" s="1">
+        <v>0</v>
+      </c>
+      <c r="X126" s="1">
         <v>1</v>
       </c>
-      <c r="T126" s="1">
-        <v>2</v>
-      </c>
-      <c r="U126" s="1">
-        <v>0</v>
-      </c>
-      <c r="V126" s="1">
-        <v>0</v>
-      </c>
-      <c r="W126" s="1">
-        <v>0</v>
-      </c>
-      <c r="X126" s="1">
-        <v>0</v>
-      </c>
       <c r="Y126" s="1">
         <v>0</v>
       </c>
@@ -29100,8 +29103,8 @@
       <c r="BF126" s="1">
         <v>0</v>
       </c>
-      <c r="BG126" s="1">
-        <v>0</v>
+      <c r="BG126" s="3">
+        <v>2250</v>
       </c>
       <c r="BH126" s="1">
         <v>0</v>
@@ -29115,8 +29118,8 @@
       <c r="BK126" s="1">
         <v>0</v>
       </c>
-      <c r="BL126" s="1">
-        <v>0</v>
+      <c r="BL126" s="3">
+        <v>1200</v>
       </c>
       <c r="BM126" s="1">
         <v>0</v>
@@ -29124,23 +29127,23 @@
       <c r="BN126" s="1">
         <v>0</v>
       </c>
-      <c r="BO126" s="3">
+      <c r="BO126" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP126" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ126" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR126" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS126" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT126" s="3">
         <v>1125</v>
-      </c>
-      <c r="BP126" s="3">
-        <v>2250</v>
-      </c>
-      <c r="BQ126" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR126" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS126" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT126" s="1">
-        <v>0</v>
       </c>
       <c r="BU126" s="1">
         <v>0</v>
@@ -29179,16 +29182,16 @@
         <v>0</v>
       </c>
       <c r="K127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L127" s="1">
         <v>0</v>
       </c>
       <c r="M127" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O127" s="1">
         <v>0</v>
@@ -29200,7 +29203,7 @@
         <v>0</v>
       </c>
       <c r="R127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S127" s="1">
         <v>1</v>
@@ -29218,10 +29221,10 @@
         <v>0</v>
       </c>
       <c r="X127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y127" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z127" s="1">
         <v>0</v>
@@ -29323,16 +29326,16 @@
         <v>0</v>
       </c>
       <c r="BG127" s="1">
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="BH127" s="1">
         <v>0</v>
       </c>
-      <c r="BI127" s="3">
-        <v>1540</v>
+      <c r="BI127" s="1">
+        <v>0</v>
       </c>
       <c r="BJ127" s="1">
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="BK127" s="1">
         <v>0</v>
@@ -29344,13 +29347,13 @@
         <v>0</v>
       </c>
       <c r="BN127" s="1">
-        <v>770</v>
-      </c>
-      <c r="BO127" s="1">
-        <v>770</v>
+        <v>0</v>
+      </c>
+      <c r="BO127" s="3">
+        <v>1125</v>
       </c>
       <c r="BP127" s="3">
-        <v>1540</v>
+        <v>2250</v>
       </c>
       <c r="BQ127" s="1">
         <v>0</v>
@@ -29359,13 +29362,13 @@
         <v>0</v>
       </c>
       <c r="BS127" s="1">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="BT127" s="1">
-        <v>770</v>
-      </c>
-      <c r="BU127" s="3">
-        <v>1540</v>
+        <v>0</v>
+      </c>
+      <c r="BU127" s="1">
+        <v>0</v>
       </c>
       <c r="BV127" s="4"/>
     </row>
@@ -29401,16 +29404,16 @@
         <v>0</v>
       </c>
       <c r="K128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128" s="1">
         <v>0</v>
       </c>
       <c r="M128" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O128" s="1">
         <v>0</v>
@@ -29422,13 +29425,13 @@
         <v>0</v>
       </c>
       <c r="R128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T128" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U128" s="1">
         <v>0</v>
@@ -29440,10 +29443,10 @@
         <v>0</v>
       </c>
       <c r="X128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y128" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z128" s="1">
         <v>0</v>
@@ -29545,16 +29548,16 @@
         <v>0</v>
       </c>
       <c r="BG128" s="1">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="BH128" s="1">
         <v>0</v>
       </c>
-      <c r="BI128" s="1">
-        <v>0</v>
+      <c r="BI128" s="3">
+        <v>1540</v>
       </c>
       <c r="BJ128" s="1">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="BK128" s="1">
         <v>0</v>
@@ -29566,13 +29569,13 @@
         <v>0</v>
       </c>
       <c r="BN128" s="1">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="BO128" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP128" s="1">
-        <v>0</v>
+        <v>770</v>
+      </c>
+      <c r="BP128" s="3">
+        <v>1540</v>
       </c>
       <c r="BQ128" s="1">
         <v>0</v>
@@ -29581,13 +29584,13 @@
         <v>0</v>
       </c>
       <c r="BS128" s="1">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="BT128" s="1">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="BU128" s="3">
-        <v>3728.7</v>
+        <v>1540</v>
       </c>
       <c r="BV128" s="4"/>
     </row>
@@ -29653,10 +29656,10 @@
         <v>0</v>
       </c>
       <c r="U129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V129" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W129" s="1">
         <v>0</v>
@@ -29665,7 +29668,7 @@
         <v>0</v>
       </c>
       <c r="Y129" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z129" s="1">
         <v>0</v>
@@ -29796,11 +29799,11 @@
       <c r="BP129" s="1">
         <v>0</v>
       </c>
-      <c r="BQ129" s="3">
-        <v>1495</v>
-      </c>
-      <c r="BR129" s="3">
-        <v>2990</v>
+      <c r="BQ129" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR129" s="1">
+        <v>0</v>
       </c>
       <c r="BS129" s="1">
         <v>0</v>
@@ -29809,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="BU129" s="3">
-        <v>2990</v>
+        <v>3728.7</v>
       </c>
       <c r="BV129" s="4"/>
     </row>
@@ -29842,44 +29845,44 @@
         <v>0</v>
       </c>
       <c r="J130" s="1">
+        <v>0</v>
+      </c>
+      <c r="K130" s="1">
+        <v>0</v>
+      </c>
+      <c r="L130" s="1">
+        <v>0</v>
+      </c>
+      <c r="M130" s="1">
+        <v>0</v>
+      </c>
+      <c r="N130" s="1">
+        <v>0</v>
+      </c>
+      <c r="O130" s="1">
+        <v>0</v>
+      </c>
+      <c r="P130" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="1">
+        <v>0</v>
+      </c>
+      <c r="R130" s="1">
+        <v>0</v>
+      </c>
+      <c r="S130" s="1">
+        <v>0</v>
+      </c>
+      <c r="T130" s="1">
+        <v>0</v>
+      </c>
+      <c r="U130" s="1">
         <v>1</v>
       </c>
-      <c r="K130" s="1">
-        <v>0</v>
-      </c>
-      <c r="L130" s="1">
-        <v>0</v>
-      </c>
-      <c r="M130" s="1">
-        <v>1</v>
-      </c>
-      <c r="N130" s="1">
-        <v>0</v>
-      </c>
-      <c r="O130" s="1">
-        <v>0</v>
-      </c>
-      <c r="P130" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q130" s="1">
-        <v>0</v>
-      </c>
-      <c r="R130" s="1">
-        <v>0</v>
-      </c>
-      <c r="S130" s="1">
+      <c r="V130" s="1">
         <v>2</v>
       </c>
-      <c r="T130" s="1">
-        <v>0</v>
-      </c>
-      <c r="U130" s="1">
-        <v>0</v>
-      </c>
-      <c r="V130" s="1">
-        <v>0</v>
-      </c>
       <c r="W130" s="1">
         <v>0</v>
       </c>
@@ -29887,7 +29890,7 @@
         <v>0</v>
       </c>
       <c r="Y130" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z130" s="1">
         <v>0</v>
@@ -29986,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="BF130" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="BG130" s="1">
         <v>0</v>
@@ -29995,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="BI130" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="BJ130" s="1">
         <v>0</v>
@@ -30012,17 +30015,17 @@
       <c r="BN130" s="1">
         <v>0</v>
       </c>
-      <c r="BO130" s="3">
-        <v>1160</v>
+      <c r="BO130" s="1">
+        <v>0</v>
       </c>
       <c r="BP130" s="1">
         <v>0</v>
       </c>
-      <c r="BQ130" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR130" s="1">
-        <v>0</v>
+      <c r="BQ130" s="3">
+        <v>1495</v>
+      </c>
+      <c r="BR130" s="3">
+        <v>2990</v>
       </c>
       <c r="BS130" s="1">
         <v>0</v>
@@ -30030,8 +30033,8 @@
       <c r="BT130" s="1">
         <v>0</v>
       </c>
-      <c r="BU130" s="1">
-        <v>0</v>
+      <c r="BU130" s="3">
+        <v>4584</v>
       </c>
       <c r="BV130" s="4"/>
     </row>
@@ -30064,7 +30067,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131" s="1">
         <v>0</v>
@@ -30073,7 +30076,7 @@
         <v>0</v>
       </c>
       <c r="M131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131" s="1">
         <v>0</v>
@@ -30091,7 +30094,7 @@
         <v>0</v>
       </c>
       <c r="S131" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T131" s="1">
         <v>0</v>
@@ -30106,7 +30109,7 @@
         <v>0</v>
       </c>
       <c r="X131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y131" s="1">
         <v>0</v>
@@ -30208,7 +30211,7 @@
         <v>0</v>
       </c>
       <c r="BF131" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="BG131" s="1">
         <v>0</v>
@@ -30217,7 +30220,7 @@
         <v>0</v>
       </c>
       <c r="BI131" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="BJ131" s="1">
         <v>0</v>
@@ -30234,8 +30237,8 @@
       <c r="BN131" s="1">
         <v>0</v>
       </c>
-      <c r="BO131" s="1">
-        <v>0</v>
+      <c r="BO131" s="3">
+        <v>1160</v>
       </c>
       <c r="BP131" s="1">
         <v>0</v>
@@ -30249,8 +30252,8 @@
       <c r="BS131" s="1">
         <v>0</v>
       </c>
-      <c r="BT131" s="3">
-        <v>1381</v>
+      <c r="BT131" s="1">
+        <v>0</v>
       </c>
       <c r="BU131" s="1">
         <v>0</v>
@@ -30301,7 +30304,7 @@
         <v>0</v>
       </c>
       <c r="O132" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P132" s="1">
         <v>0</v>
@@ -30328,7 +30331,7 @@
         <v>0</v>
       </c>
       <c r="X132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y132" s="1">
         <v>0</v>
@@ -30444,8 +30447,8 @@
       <c r="BJ132" s="1">
         <v>0</v>
       </c>
-      <c r="BK132" s="3">
-        <v>2498</v>
+      <c r="BK132" s="1">
+        <v>0</v>
       </c>
       <c r="BL132" s="1">
         <v>0</v>
@@ -30471,8 +30474,8 @@
       <c r="BS132" s="1">
         <v>0</v>
       </c>
-      <c r="BT132" s="1">
-        <v>0</v>
+      <c r="BT132" s="3">
+        <v>1381</v>
       </c>
       <c r="BU132" s="1">
         <v>0</v>
@@ -30523,16 +30526,16 @@
         <v>0</v>
       </c>
       <c r="O133" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q133" s="1">
         <v>0</v>
       </c>
       <c r="R133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S133" s="1">
         <v>0</v>
@@ -30547,10 +30550,10 @@
         <v>0</v>
       </c>
       <c r="W133" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y133" s="1">
         <v>0</v>
@@ -30667,16 +30670,16 @@
         <v>0</v>
       </c>
       <c r="BK133" s="3">
-        <v>1448</v>
-      </c>
-      <c r="BL133" s="3">
-        <v>1448</v>
+        <v>2498</v>
+      </c>
+      <c r="BL133" s="1">
+        <v>0</v>
       </c>
       <c r="BM133" s="1">
         <v>0</v>
       </c>
-      <c r="BN133" s="3">
-        <v>1544</v>
+      <c r="BN133" s="1">
+        <v>0</v>
       </c>
       <c r="BO133" s="1">
         <v>0</v>
@@ -30690,11 +30693,11 @@
       <c r="BR133" s="1">
         <v>0</v>
       </c>
-      <c r="BS133" s="3">
-        <v>5580</v>
-      </c>
-      <c r="BT133" s="3">
-        <v>1350</v>
+      <c r="BS133" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT133" s="1">
+        <v>0</v>
       </c>
       <c r="BU133" s="1">
         <v>0</v>
@@ -30733,47 +30736,47 @@
         <v>0</v>
       </c>
       <c r="K134" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L134" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M134" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N134" s="1">
         <v>0</v>
       </c>
       <c r="O134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q134" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S134" s="1">
         <v>0</v>
       </c>
       <c r="T134" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U134" s="1">
         <v>0</v>
       </c>
       <c r="V134" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W134" s="1">
+        <v>4</v>
+      </c>
+      <c r="X134" s="1">
         <v>1</v>
       </c>
-      <c r="X134" s="1">
-        <v>2</v>
-      </c>
       <c r="Y134" s="1">
         <v>0</v>
       </c>
@@ -30876,47 +30879,47 @@
       <c r="BF134" s="1">
         <v>0</v>
       </c>
-      <c r="BG134" s="3">
-        <v>1780</v>
-      </c>
-      <c r="BH134" s="3">
-        <v>2670</v>
-      </c>
-      <c r="BI134" s="3">
-        <v>1780</v>
+      <c r="BG134" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH134" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI134" s="1">
+        <v>0</v>
       </c>
       <c r="BJ134" s="1">
         <v>0</v>
       </c>
-      <c r="BK134" s="1">
-        <v>0</v>
+      <c r="BK134" s="3">
+        <v>1448</v>
       </c>
       <c r="BL134" s="3">
-        <v>1896</v>
-      </c>
-      <c r="BM134" s="3">
-        <v>1838</v>
-      </c>
-      <c r="BN134" s="1">
-        <v>0</v>
+        <v>1448</v>
+      </c>
+      <c r="BM134" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN134" s="3">
+        <v>1544</v>
       </c>
       <c r="BO134" s="1">
         <v>0</v>
       </c>
-      <c r="BP134" s="3">
-        <v>1780</v>
+      <c r="BP134" s="1">
+        <v>0</v>
       </c>
       <c r="BQ134" s="1">
         <v>0</v>
       </c>
-      <c r="BR134" s="3">
-        <v>1780</v>
-      </c>
-      <c r="BS134" s="1">
-        <v>890</v>
+      <c r="BR134" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS134" s="3">
+        <v>5580</v>
       </c>
       <c r="BT134" s="3">
-        <v>1780</v>
+        <v>1350</v>
       </c>
       <c r="BU134" s="1">
         <v>0</v>
@@ -30955,49 +30958,49 @@
         <v>0</v>
       </c>
       <c r="K135" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L135" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M135" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O135" s="1">
+        <v>0</v>
+      </c>
+      <c r="P135" s="1">
         <v>2</v>
-      </c>
-      <c r="P135" s="1">
-        <v>0</v>
       </c>
       <c r="Q135" s="1">
         <v>2</v>
       </c>
       <c r="R135" s="1">
+        <v>0</v>
+      </c>
+      <c r="S135" s="1">
+        <v>0</v>
+      </c>
+      <c r="T135" s="1">
+        <v>2</v>
+      </c>
+      <c r="U135" s="1">
+        <v>0</v>
+      </c>
+      <c r="V135" s="1">
+        <v>2</v>
+      </c>
+      <c r="W135" s="1">
         <v>1</v>
       </c>
-      <c r="S135" s="1">
-        <v>0</v>
-      </c>
-      <c r="T135" s="1">
-        <v>0</v>
-      </c>
-      <c r="U135" s="1">
-        <v>0</v>
-      </c>
-      <c r="V135" s="1">
-        <v>0</v>
-      </c>
-      <c r="W135" s="1">
-        <v>0</v>
-      </c>
       <c r="X135" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z135" s="1">
         <v>0</v>
@@ -31099,49 +31102,49 @@
         <v>0</v>
       </c>
       <c r="BG135" s="3">
-        <v>1050</v>
-      </c>
-      <c r="BH135" s="1">
-        <v>0</v>
+        <v>1780</v>
+      </c>
+      <c r="BH135" s="3">
+        <v>2670</v>
       </c>
       <c r="BI135" s="3">
-        <v>1050</v>
-      </c>
-      <c r="BJ135" s="3">
-        <v>1050</v>
-      </c>
-      <c r="BK135" s="3">
-        <v>2100</v>
-      </c>
-      <c r="BL135" s="1">
-        <v>0</v>
+        <v>1780</v>
+      </c>
+      <c r="BJ135" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK135" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL135" s="3">
+        <v>1896</v>
       </c>
       <c r="BM135" s="3">
-        <v>2100</v>
-      </c>
-      <c r="BN135" s="3">
-        <v>1050</v>
+        <v>1838</v>
+      </c>
+      <c r="BN135" s="1">
+        <v>0</v>
       </c>
       <c r="BO135" s="1">
         <v>0</v>
       </c>
-      <c r="BP135" s="1">
-        <v>0</v>
+      <c r="BP135" s="3">
+        <v>1780</v>
       </c>
       <c r="BQ135" s="1">
         <v>0</v>
       </c>
-      <c r="BR135" s="1">
-        <v>0</v>
+      <c r="BR135" s="3">
+        <v>1780</v>
       </c>
       <c r="BS135" s="1">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="BT135" s="3">
-        <v>1050</v>
-      </c>
-      <c r="BU135" s="3">
-        <v>1120</v>
+        <v>1780</v>
+      </c>
+      <c r="BU135" s="1">
+        <v>0</v>
       </c>
       <c r="BV135" s="4"/>
     </row>
@@ -31177,28 +31180,28 @@
         <v>0</v>
       </c>
       <c r="K136" s="1">
+        <v>1</v>
+      </c>
+      <c r="L136" s="1">
+        <v>0</v>
+      </c>
+      <c r="M136" s="1">
+        <v>1</v>
+      </c>
+      <c r="N136" s="1">
+        <v>1</v>
+      </c>
+      <c r="O136" s="1">
         <v>2</v>
       </c>
-      <c r="L136" s="1">
-        <v>0</v>
-      </c>
-      <c r="M136" s="1">
-        <v>0</v>
-      </c>
-      <c r="N136" s="1">
-        <v>0</v>
-      </c>
-      <c r="O136" s="1">
-        <v>0</v>
-      </c>
       <c r="P136" s="1">
         <v>0</v>
       </c>
       <c r="Q136" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S136" s="1">
         <v>0</v>
@@ -31216,10 +31219,10 @@
         <v>0</v>
       </c>
       <c r="X136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z136" s="1">
         <v>0</v>
@@ -31321,28 +31324,28 @@
         <v>0</v>
       </c>
       <c r="BG136" s="3">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="BH136" s="1">
         <v>0</v>
       </c>
-      <c r="BI136" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ136" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK136" s="1">
-        <v>0</v>
+      <c r="BI136" s="3">
+        <v>1050</v>
+      </c>
+      <c r="BJ136" s="3">
+        <v>1050</v>
+      </c>
+      <c r="BK136" s="3">
+        <v>2100</v>
       </c>
       <c r="BL136" s="1">
         <v>0</v>
       </c>
-      <c r="BM136" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN136" s="1">
-        <v>0</v>
+      <c r="BM136" s="3">
+        <v>2100</v>
+      </c>
+      <c r="BN136" s="3">
+        <v>1050</v>
       </c>
       <c r="BO136" s="1">
         <v>0</v>
@@ -31359,11 +31362,11 @@
       <c r="BS136" s="1">
         <v>0</v>
       </c>
-      <c r="BT136" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU136" s="1">
-        <v>0</v>
+      <c r="BT136" s="3">
+        <v>1050</v>
+      </c>
+      <c r="BU136" s="3">
+        <v>1120</v>
       </c>
       <c r="BV136" s="4"/>
     </row>
@@ -31399,13 +31402,13 @@
         <v>0</v>
       </c>
       <c r="K137" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L137" s="1">
         <v>0</v>
       </c>
       <c r="M137" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N137" s="1">
         <v>0</v>
@@ -31420,10 +31423,10 @@
         <v>0</v>
       </c>
       <c r="R137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S137" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T137" s="1">
         <v>0</v>
@@ -31542,14 +31545,14 @@
       <c r="BF137" s="1">
         <v>0</v>
       </c>
-      <c r="BG137" s="1">
-        <v>0</v>
+      <c r="BG137" s="3">
+        <v>1200</v>
       </c>
       <c r="BH137" s="1">
         <v>0</v>
       </c>
-      <c r="BI137" s="3">
-        <v>2400</v>
+      <c r="BI137" s="1">
+        <v>0</v>
       </c>
       <c r="BJ137" s="1">
         <v>0</v>
@@ -31563,11 +31566,11 @@
       <c r="BM137" s="1">
         <v>0</v>
       </c>
-      <c r="BN137" s="3">
-        <v>1125</v>
-      </c>
-      <c r="BO137" s="3">
-        <v>2250</v>
+      <c r="BN137" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO137" s="1">
+        <v>0</v>
       </c>
       <c r="BP137" s="1">
         <v>0</v>
@@ -31618,7 +31621,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138" s="1">
         <v>0</v>
@@ -31627,25 +31630,25 @@
         <v>0</v>
       </c>
       <c r="M138" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N138" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O138" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P138" s="1">
         <v>0</v>
       </c>
       <c r="Q138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R138" s="1">
         <v>1</v>
       </c>
       <c r="S138" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T138" s="1">
         <v>0</v>
@@ -31654,7 +31657,7 @@
         <v>0</v>
       </c>
       <c r="V138" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W138" s="1">
         <v>0</v>
@@ -31762,7 +31765,7 @@
         <v>0</v>
       </c>
       <c r="BF138" s="1">
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="BG138" s="1">
         <v>0</v>
@@ -31770,26 +31773,26 @@
       <c r="BH138" s="1">
         <v>0</v>
       </c>
-      <c r="BI138" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ138" s="3">
-        <v>2455</v>
-      </c>
-      <c r="BK138" s="3">
-        <v>1473</v>
+      <c r="BI138" s="3">
+        <v>2400</v>
+      </c>
+      <c r="BJ138" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK138" s="1">
+        <v>0</v>
       </c>
       <c r="BL138" s="1">
         <v>0</v>
       </c>
       <c r="BM138" s="1">
-        <v>491</v>
-      </c>
-      <c r="BN138" s="1">
-        <v>491</v>
-      </c>
-      <c r="BO138" s="1">
-        <v>470</v>
+        <v>0</v>
+      </c>
+      <c r="BN138" s="3">
+        <v>1125</v>
+      </c>
+      <c r="BO138" s="3">
+        <v>2250</v>
       </c>
       <c r="BP138" s="1">
         <v>0</v>
@@ -31798,7 +31801,7 @@
         <v>0</v>
       </c>
       <c r="BR138" s="1">
-        <v>978</v>
+        <v>0</v>
       </c>
       <c r="BS138" s="1">
         <v>0</v>
@@ -31840,52 +31843,52 @@
         <v>0</v>
       </c>
       <c r="J139" s="1">
+        <v>1</v>
+      </c>
+      <c r="K139" s="1">
+        <v>0</v>
+      </c>
+      <c r="L139" s="1">
+        <v>0</v>
+      </c>
+      <c r="M139" s="1">
+        <v>0</v>
+      </c>
+      <c r="N139" s="1">
+        <v>5</v>
+      </c>
+      <c r="O139" s="1">
         <v>3</v>
       </c>
-      <c r="K139" s="1">
-        <v>2</v>
-      </c>
-      <c r="L139" s="1">
-        <v>0</v>
-      </c>
-      <c r="M139" s="1">
-        <v>2</v>
-      </c>
-      <c r="N139" s="1">
-        <v>4</v>
-      </c>
-      <c r="O139" s="1">
-        <v>2</v>
-      </c>
       <c r="P139" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="1">
         <v>1</v>
       </c>
-      <c r="Q139" s="1">
-        <v>2</v>
-      </c>
       <c r="R139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S139" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V139" s="1">
         <v>2</v>
       </c>
       <c r="W139" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X139" s="1">
         <v>0</v>
       </c>
       <c r="Y139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z139" s="1">
         <v>0</v>
@@ -31983,53 +31986,53 @@
       <c r="BE139" s="1">
         <v>0</v>
       </c>
-      <c r="BF139" s="3">
-        <v>1800</v>
-      </c>
-      <c r="BG139" s="3">
-        <v>1200</v>
+      <c r="BF139" s="1">
+        <v>491</v>
+      </c>
+      <c r="BG139" s="1">
+        <v>0</v>
       </c>
       <c r="BH139" s="1">
         <v>0</v>
       </c>
-      <c r="BI139" s="3">
-        <v>1200</v>
+      <c r="BI139" s="1">
+        <v>0</v>
       </c>
       <c r="BJ139" s="3">
-        <v>2400</v>
+        <v>2455</v>
       </c>
       <c r="BK139" s="3">
-        <v>1200</v>
+        <v>1473</v>
       </c>
       <c r="BL139" s="1">
-        <v>580</v>
-      </c>
-      <c r="BM139" s="3">
-        <v>1160</v>
+        <v>0</v>
+      </c>
+      <c r="BM139" s="1">
+        <v>491</v>
       </c>
       <c r="BN139" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO139" s="3">
-        <v>1740</v>
+        <v>491</v>
+      </c>
+      <c r="BO139" s="1">
+        <v>470</v>
       </c>
       <c r="BP139" s="1">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="BQ139" s="1">
-        <v>580</v>
-      </c>
-      <c r="BR139" s="3">
-        <v>1180</v>
-      </c>
-      <c r="BS139" s="3">
-        <v>1200</v>
+        <v>0</v>
+      </c>
+      <c r="BR139" s="1">
+        <v>978</v>
+      </c>
+      <c r="BS139" s="1">
+        <v>0</v>
       </c>
       <c r="BT139" s="1">
         <v>0</v>
       </c>
       <c r="BU139" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="BV139" s="4"/>
     </row>
@@ -32062,52 +32065,52 @@
         <v>0</v>
       </c>
       <c r="J140" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K140" s="1">
         <v>2</v>
       </c>
       <c r="L140" s="1">
+        <v>0</v>
+      </c>
+      <c r="M140" s="1">
+        <v>2</v>
+      </c>
+      <c r="N140" s="1">
+        <v>4</v>
+      </c>
+      <c r="O140" s="1">
+        <v>2</v>
+      </c>
+      <c r="P140" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="1">
+        <v>2</v>
+      </c>
+      <c r="R140" s="1">
+        <v>0</v>
+      </c>
+      <c r="S140" s="1">
         <v>3</v>
       </c>
-      <c r="M140" s="1">
-        <v>4</v>
-      </c>
-      <c r="N140" s="1">
-        <v>7</v>
-      </c>
-      <c r="O140" s="1">
-        <v>4</v>
-      </c>
-      <c r="P140" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q140" s="1">
+      <c r="T140" s="1">
         <v>1</v>
       </c>
-      <c r="R140" s="1">
-        <v>4</v>
-      </c>
-      <c r="S140" s="1">
+      <c r="U140" s="1">
         <v>1</v>
       </c>
-      <c r="T140" s="1">
-        <v>5</v>
-      </c>
-      <c r="U140" s="1">
-        <v>0</v>
-      </c>
       <c r="V140" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W140" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X140" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y140" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Z140" s="1">
         <v>0</v>
@@ -32205,53 +32208,53 @@
       <c r="BE140" s="1">
         <v>0</v>
       </c>
-      <c r="BF140" s="1">
-        <v>600</v>
+      <c r="BF140" s="3">
+        <v>1800</v>
       </c>
       <c r="BG140" s="3">
         <v>1200</v>
       </c>
-      <c r="BH140" s="3">
-        <v>1800</v>
+      <c r="BH140" s="1">
+        <v>0</v>
       </c>
       <c r="BI140" s="3">
+        <v>1200</v>
+      </c>
+      <c r="BJ140" s="3">
         <v>2400</v>
       </c>
-      <c r="BJ140" s="3">
-        <v>4200</v>
-      </c>
       <c r="BK140" s="3">
-        <v>2400</v>
-      </c>
-      <c r="BL140" s="3">
-        <v>3540</v>
-      </c>
-      <c r="BM140" s="1">
-        <v>585</v>
-      </c>
-      <c r="BN140" s="3">
-        <v>2400</v>
-      </c>
-      <c r="BO140" s="1">
-        <v>585</v>
-      </c>
-      <c r="BP140" s="3">
-        <v>2985</v>
+        <v>1200</v>
+      </c>
+      <c r="BL140" s="1">
+        <v>580</v>
+      </c>
+      <c r="BM140" s="3">
+        <v>1160</v>
+      </c>
+      <c r="BN140" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO140" s="3">
+        <v>1740</v>
+      </c>
+      <c r="BP140" s="1">
+        <v>580</v>
       </c>
       <c r="BQ140" s="1">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="BR140" s="3">
-        <v>2400</v>
+        <v>1180</v>
       </c>
       <c r="BS140" s="3">
-        <v>4725</v>
-      </c>
-      <c r="BT140" s="3">
-        <v>2400</v>
-      </c>
-      <c r="BU140" s="3">
-        <v>5400</v>
+        <v>1200</v>
+      </c>
+      <c r="BT140" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU140" s="1">
+        <v>600</v>
       </c>
       <c r="BV140" s="4"/>
     </row>
@@ -32284,52 +32287,52 @@
         <v>0</v>
       </c>
       <c r="J141" s="1">
+        <v>1</v>
+      </c>
+      <c r="K141" s="1">
         <v>2</v>
       </c>
-      <c r="K141" s="1">
+      <c r="L141" s="1">
+        <v>3</v>
+      </c>
+      <c r="M141" s="1">
+        <v>4</v>
+      </c>
+      <c r="N141" s="1">
+        <v>7</v>
+      </c>
+      <c r="O141" s="1">
+        <v>4</v>
+      </c>
+      <c r="P141" s="1">
         <v>6</v>
-      </c>
-      <c r="L141" s="1">
-        <v>7</v>
-      </c>
-      <c r="M141" s="1">
-        <v>0</v>
-      </c>
-      <c r="N141" s="1">
-        <v>2</v>
-      </c>
-      <c r="O141" s="1">
-        <v>9</v>
-      </c>
-      <c r="P141" s="1">
-        <v>3</v>
       </c>
       <c r="Q141" s="1">
         <v>1</v>
       </c>
       <c r="R141" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S141" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T141" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U141" s="1">
         <v>0</v>
       </c>
       <c r="V141" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W141" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X141" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Y141" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Z141" s="1">
         <v>0</v>
@@ -32427,53 +32430,53 @@
       <c r="BE141" s="1">
         <v>0</v>
       </c>
-      <c r="BF141" s="3">
-        <v>1540</v>
+      <c r="BF141" s="1">
+        <v>600</v>
       </c>
       <c r="BG141" s="3">
-        <v>4620</v>
+        <v>1200</v>
       </c>
       <c r="BH141" s="3">
-        <v>5390</v>
-      </c>
-      <c r="BI141" s="1">
-        <v>0</v>
+        <v>1800</v>
+      </c>
+      <c r="BI141" s="3">
+        <v>2400</v>
       </c>
       <c r="BJ141" s="3">
-        <v>1540</v>
+        <v>4200</v>
       </c>
       <c r="BK141" s="3">
-        <v>6888</v>
+        <v>2400</v>
       </c>
       <c r="BL141" s="3">
-        <v>1997</v>
+        <v>3540</v>
       </c>
       <c r="BM141" s="1">
-        <v>770</v>
+        <v>585</v>
       </c>
       <c r="BN141" s="3">
-        <v>7511</v>
-      </c>
-      <c r="BO141" s="3">
-        <v>1498</v>
-      </c>
-      <c r="BP141" s="1">
-        <v>770</v>
+        <v>2400</v>
+      </c>
+      <c r="BO141" s="1">
+        <v>585</v>
+      </c>
+      <c r="BP141" s="3">
+        <v>2985</v>
       </c>
       <c r="BQ141" s="1">
         <v>0</v>
       </c>
       <c r="BR141" s="3">
-        <v>4515</v>
-      </c>
-      <c r="BS141" s="1">
-        <v>770</v>
+        <v>2400</v>
+      </c>
+      <c r="BS141" s="3">
+        <v>4725</v>
       </c>
       <c r="BT141" s="3">
-        <v>1540</v>
+        <v>2400</v>
       </c>
       <c r="BU141" s="3">
-        <v>2310</v>
+        <v>5400</v>
       </c>
       <c r="BV141" s="4"/>
     </row>
@@ -32506,49 +32509,49 @@
         <v>0</v>
       </c>
       <c r="J142" s="1">
+        <v>2</v>
+      </c>
+      <c r="K142" s="1">
+        <v>6</v>
+      </c>
+      <c r="L142" s="1">
         <v>7</v>
       </c>
-      <c r="K142" s="1">
-        <v>15</v>
-      </c>
-      <c r="L142" s="1">
-        <v>16</v>
-      </c>
       <c r="M142" s="1">
+        <v>0</v>
+      </c>
+      <c r="N142" s="1">
+        <v>2</v>
+      </c>
+      <c r="O142" s="1">
+        <v>9</v>
+      </c>
+      <c r="P142" s="1">
         <v>3</v>
       </c>
-      <c r="N142" s="1">
-        <v>0</v>
-      </c>
-      <c r="O142" s="1">
+      <c r="Q142" s="1">
+        <v>1</v>
+      </c>
+      <c r="R142" s="1">
+        <v>10</v>
+      </c>
+      <c r="S142" s="1">
         <v>2</v>
       </c>
-      <c r="P142" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q142" s="1">
-        <v>3</v>
-      </c>
-      <c r="R142" s="1">
-        <v>2</v>
-      </c>
-      <c r="S142" s="1">
-        <v>3</v>
-      </c>
       <c r="T142" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U142" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V142" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W142" s="1">
         <v>1</v>
       </c>
       <c r="X142" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y142" s="1">
         <v>3</v>
@@ -32650,52 +32653,52 @@
         <v>0</v>
       </c>
       <c r="BF142" s="3">
-        <v>3780</v>
+        <v>1540</v>
       </c>
       <c r="BG142" s="3">
-        <v>8100</v>
+        <v>4620</v>
       </c>
       <c r="BH142" s="3">
-        <v>8640</v>
-      </c>
-      <c r="BI142" s="3">
-        <v>1620</v>
-      </c>
-      <c r="BJ142" s="1">
-        <v>0</v>
+        <v>5390</v>
+      </c>
+      <c r="BI142" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ142" s="3">
+        <v>1540</v>
       </c>
       <c r="BK142" s="3">
-        <v>1080</v>
+        <v>6888</v>
       </c>
       <c r="BL142" s="3">
-        <v>4815</v>
-      </c>
-      <c r="BM142" s="3">
-        <v>1275</v>
+        <v>1997</v>
+      </c>
+      <c r="BM142" s="1">
+        <v>770</v>
       </c>
       <c r="BN142" s="3">
-        <v>1080</v>
+        <v>7511</v>
       </c>
       <c r="BO142" s="3">
-        <v>1570</v>
+        <v>1498</v>
       </c>
       <c r="BP142" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ142" s="3">
-        <v>1080</v>
+        <v>770</v>
+      </c>
+      <c r="BQ142" s="1">
+        <v>0</v>
       </c>
       <c r="BR142" s="3">
-        <v>1620</v>
+        <v>4515</v>
       </c>
       <c r="BS142" s="1">
-        <v>540</v>
+        <v>770</v>
       </c>
       <c r="BT142" s="3">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="BU142" s="3">
-        <v>1620</v>
+        <v>2310</v>
       </c>
       <c r="BV142" s="4"/>
     </row>
@@ -32728,52 +32731,52 @@
         <v>0</v>
       </c>
       <c r="J143" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K143" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L143" s="1">
+        <v>16</v>
+      </c>
+      <c r="M143" s="1">
+        <v>3</v>
+      </c>
+      <c r="N143" s="1">
+        <v>0</v>
+      </c>
+      <c r="O143" s="1">
+        <v>2</v>
+      </c>
+      <c r="P143" s="1">
         <v>10</v>
       </c>
-      <c r="M143" s="1">
-        <v>7</v>
-      </c>
-      <c r="N143" s="1">
-        <v>7</v>
-      </c>
-      <c r="O143" s="1">
-        <v>11</v>
-      </c>
-      <c r="P143" s="1">
-        <v>13</v>
-      </c>
       <c r="Q143" s="1">
+        <v>3</v>
+      </c>
+      <c r="R143" s="1">
         <v>2</v>
       </c>
-      <c r="R143" s="1">
-        <v>1</v>
-      </c>
       <c r="S143" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U143" s="1">
         <v>2</v>
       </c>
       <c r="V143" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W143" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X143" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y143" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z143" s="1">
         <v>0</v>
@@ -32872,52 +32875,52 @@
         <v>0</v>
       </c>
       <c r="BF143" s="3">
-        <v>3888</v>
+        <v>3780</v>
       </c>
       <c r="BG143" s="3">
-        <v>3240</v>
+        <v>8100</v>
       </c>
       <c r="BH143" s="3">
-        <v>6442</v>
+        <v>8640</v>
       </c>
       <c r="BI143" s="3">
-        <v>4460</v>
-      </c>
-      <c r="BJ143" s="3">
-        <v>4338</v>
+        <v>1620</v>
+      </c>
+      <c r="BJ143" s="1">
+        <v>0</v>
       </c>
       <c r="BK143" s="3">
-        <v>6765</v>
+        <v>1080</v>
       </c>
       <c r="BL143" s="3">
-        <v>8028</v>
+        <v>4815</v>
       </c>
       <c r="BM143" s="3">
-        <v>1230</v>
-      </c>
-      <c r="BN143" s="1">
-        <v>672</v>
+        <v>1275</v>
+      </c>
+      <c r="BN143" s="3">
+        <v>1080</v>
       </c>
       <c r="BO143" s="3">
-        <v>1230</v>
+        <v>1570</v>
       </c>
       <c r="BP143" s="1">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="BQ143" s="3">
-        <v>1220</v>
+        <v>1080</v>
       </c>
       <c r="BR143" s="3">
-        <v>1230</v>
-      </c>
-      <c r="BS143" s="3">
-        <v>3174</v>
+        <v>1620</v>
+      </c>
+      <c r="BS143" s="1">
+        <v>540</v>
       </c>
       <c r="BT143" s="3">
-        <v>2592</v>
-      </c>
-      <c r="BU143" s="1">
-        <v>648</v>
+        <v>1545</v>
+      </c>
+      <c r="BU143" s="3">
+        <v>1620</v>
       </c>
       <c r="BV143" s="4"/>
     </row>
@@ -32950,198 +32953,420 @@
         <v>0</v>
       </c>
       <c r="J144" s="1">
+        <v>6</v>
+      </c>
+      <c r="K144" s="1">
+        <v>5</v>
+      </c>
+      <c r="L144" s="1">
+        <v>10</v>
+      </c>
+      <c r="M144" s="1">
+        <v>7</v>
+      </c>
+      <c r="N144" s="1">
+        <v>7</v>
+      </c>
+      <c r="O144" s="1">
+        <v>11</v>
+      </c>
+      <c r="P144" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q144" s="1">
+        <v>2</v>
+      </c>
+      <c r="R144" s="1">
+        <v>1</v>
+      </c>
+      <c r="S144" s="1">
+        <v>2</v>
+      </c>
+      <c r="T144" s="1">
+        <v>1</v>
+      </c>
+      <c r="U144" s="1">
+        <v>2</v>
+      </c>
+      <c r="V144" s="1">
+        <v>2</v>
+      </c>
+      <c r="W144" s="1">
+        <v>5</v>
+      </c>
+      <c r="X144" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y144" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ144" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA144" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB144" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC144" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD144" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE144" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF144" s="3">
+        <v>3888</v>
+      </c>
+      <c r="BG144" s="3">
+        <v>3240</v>
+      </c>
+      <c r="BH144" s="3">
+        <v>6442</v>
+      </c>
+      <c r="BI144" s="3">
+        <v>4460</v>
+      </c>
+      <c r="BJ144" s="3">
+        <v>4338</v>
+      </c>
+      <c r="BK144" s="3">
+        <v>6765</v>
+      </c>
+      <c r="BL144" s="3">
+        <v>8028</v>
+      </c>
+      <c r="BM144" s="3">
+        <v>1230</v>
+      </c>
+      <c r="BN144" s="1">
+        <v>672</v>
+      </c>
+      <c r="BO144" s="3">
+        <v>1230</v>
+      </c>
+      <c r="BP144" s="1">
+        <v>648</v>
+      </c>
+      <c r="BQ144" s="3">
+        <v>1220</v>
+      </c>
+      <c r="BR144" s="3">
+        <v>1230</v>
+      </c>
+      <c r="BS144" s="3">
+        <v>3174</v>
+      </c>
+      <c r="BT144" s="3">
+        <v>2592</v>
+      </c>
+      <c r="BU144" s="3">
+        <v>3240</v>
+      </c>
+      <c r="BV144" s="4"/>
+    </row>
+    <row r="145" spans="1:74" ht="15" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" s="1">
+        <v>0</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1">
+        <v>0</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0</v>
+      </c>
+      <c r="H145" s="1">
+        <v>0</v>
+      </c>
+      <c r="I145" s="1">
+        <v>0</v>
+      </c>
+      <c r="J145" s="1">
         <v>102</v>
       </c>
-      <c r="K144" s="1">
+      <c r="K145" s="1">
         <v>164</v>
       </c>
-      <c r="L144" s="1">
+      <c r="L145" s="1">
         <v>163</v>
       </c>
-      <c r="M144" s="1">
+      <c r="M145" s="1">
         <v>158</v>
       </c>
-      <c r="N144" s="1">
+      <c r="N145" s="1">
         <v>216</v>
       </c>
-      <c r="O144" s="1">
+      <c r="O145" s="1">
         <v>206</v>
       </c>
-      <c r="P144" s="1">
+      <c r="P145" s="1">
         <v>199</v>
       </c>
-      <c r="Q144" s="1">
+      <c r="Q145" s="1">
         <v>130</v>
       </c>
-      <c r="R144" s="1">
+      <c r="R145" s="1">
         <v>117</v>
       </c>
-      <c r="S144" s="1">
+      <c r="S145" s="1">
         <v>158</v>
       </c>
-      <c r="T144" s="1">
+      <c r="T145" s="1">
         <v>115</v>
       </c>
-      <c r="U144" s="1">
+      <c r="U145" s="1">
         <v>31</v>
       </c>
-      <c r="V144" s="1">
+      <c r="V145" s="1">
         <v>182</v>
       </c>
-      <c r="W144" s="1">
+      <c r="W145" s="1">
         <v>212</v>
       </c>
-      <c r="X144" s="1">
+      <c r="X145" s="1">
         <v>181</v>
       </c>
-      <c r="Y144" s="1">
-        <v>189</v>
-      </c>
-      <c r="Z144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY144" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ144" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA144" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB144" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC144" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD144" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE144" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF144" s="3">
+      <c r="Y145" s="1">
+        <v>225</v>
+      </c>
+      <c r="Z145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ145" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA145" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB145" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC145" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD145" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE145" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF145" s="3">
         <v>94611.47</v>
       </c>
-      <c r="BG144" s="3">
+      <c r="BG145" s="3">
         <v>155228</v>
       </c>
-      <c r="BH144" s="3">
+      <c r="BH145" s="3">
         <v>166825.60000000001</v>
       </c>
-      <c r="BI144" s="3">
+      <c r="BI145" s="3">
         <v>155705</v>
       </c>
-      <c r="BJ144" s="3">
+      <c r="BJ145" s="3">
         <v>213747.67</v>
       </c>
-      <c r="BK144" s="3">
+      <c r="BK145" s="3">
         <v>203629.8</v>
       </c>
-      <c r="BL144" s="3">
+      <c r="BL145" s="3">
         <v>210652</v>
       </c>
-      <c r="BM144" s="3">
+      <c r="BM145" s="3">
         <v>128034</v>
       </c>
-      <c r="BN144" s="3">
+      <c r="BN145" s="3">
         <v>116020</v>
       </c>
-      <c r="BO144" s="3">
+      <c r="BO145" s="3">
         <v>156534</v>
       </c>
-      <c r="BP144" s="3">
+      <c r="BP145" s="3">
         <v>114981</v>
       </c>
-      <c r="BQ144" s="3">
+      <c r="BQ145" s="3">
         <v>29611.01</v>
       </c>
-      <c r="BR144" s="3">
+      <c r="BR145" s="3">
         <v>168448</v>
       </c>
-      <c r="BS144" s="3">
+      <c r="BS145" s="3">
         <v>220683.06</v>
       </c>
-      <c r="BT144" s="3">
+      <c r="BT145" s="3">
         <v>178582</v>
       </c>
-      <c r="BU144" s="3">
-        <v>209778.3</v>
-      </c>
-      <c r="BV144" s="5"/>
+      <c r="BU145" s="3">
+        <v>246344.3</v>
+      </c>
+      <c r="BV145" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
